--- a/Cleanup Sheet.xlsx
+++ b/Cleanup Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j.austinmiles\Documents\DX\House Manager\CleanupCoordinator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD370C9-D1B6-44D5-8B0D-EC58F25DBF15}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FE2539-11A0-416C-BB28-DB347B8CBE7D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4245" yWindow="4245" windowWidth="21600" windowHeight="11835" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tally - Check Hours Here" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,9 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 1" guid="{94585C9F-1B85-465E-91D5-6A956AC4E77F}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{F8EB5DD3-AD88-4677-B832-36C03EB988C5}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 2" guid="{360E8DCA-6649-4E70-8165-2C0F506B3505}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{F8EB5DD3-AD88-4677-B832-36C03EB988C5}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{94585C9F-1B85-465E-91D5-6A956AC4E77F}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="551">
   <si>
     <t>Clean Up Hours</t>
   </si>
@@ -1650,6 +1650,54 @@
   </si>
   <si>
     <t>j.austinmiles@outlook.com</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1tUNeov5QSlXPY5sAfcgT0hvsi4_TmCv4</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1ZyD9bws6jBB2EMOrGyrZVnlYxSnWmR5o</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1zG-g9YdOGbBT3urACJeMj9Iem6Lnsw1B</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1YYcBU8PtqsoaUXDiFw9s59E2Ttq-R9Ct</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1fROFJSSeXB21UgJyJYKKgmbqDzNWzEM8</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1jvVht5wAT0qcLfXSnfGS3pEf3WZb75Hh</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1o9JrGH9QpxIcsUVZWGbVVjIF6DMNPkNx</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=12MWYHmk2Y-QkECBh0cqtRHoUZFKr9W0t</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=13gV6b7caxRHTmTm9R6Ij6JfzC6uuOeYW</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1OefbJOUGzrP22BLSOE6z_o2n2wj6fV35</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1CwKG5uBPLoVqCORH7FmjX1e-p-DXxERX</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1myYbxwGgktll9p5teWroCRtj9N2skAih</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1ednAudT61SJ_FaFft4DDUzyk2_1yp9CN</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1y2-6d3Ts6ijYxSfmf8v8LT0hkf5libVt</t>
+  </si>
+  <si>
+    <t>Assigned</t>
   </si>
 </sst>
 </file>
@@ -1882,7 +1930,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1938,6 +1986,9 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1953,14 +2004,12 @@
     <xf numFmtId="10" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="57">
+  <dxfs count="20">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2109,328 +2158,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFD966"/>
-          <bgColor rgb="FFFFD966"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF93C47D"/>
-          <bgColor rgb="FF93C47D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF6B26B"/>
-          <bgColor rgb="FFF6B26B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE06666"/>
-          <bgColor rgb="FFE06666"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF999999"/>
-          <bgColor rgb="FF999999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFD966"/>
-          <bgColor rgb="FFFFD966"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF93C47D"/>
-          <bgColor rgb="FF93C47D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF6B26B"/>
-          <bgColor rgb="FFF6B26B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE06666"/>
-          <bgColor rgb="FFE06666"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF999999"/>
-          <bgColor rgb="FF999999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFD966"/>
-          <bgColor rgb="FFFFD966"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF93C47D"/>
-          <bgColor rgb="FF93C47D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF6B26B"/>
-          <bgColor rgb="FFF6B26B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE06666"/>
-          <bgColor rgb="FFE06666"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF999999"/>
-          <bgColor rgb="FF999999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFD966"/>
-          <bgColor rgb="FFFFD966"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF93C47D"/>
-          <bgColor rgb="FF93C47D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF6B26B"/>
-          <bgColor rgb="FFF6B26B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE06666"/>
-          <bgColor rgb="FFE06666"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF999999"/>
-          <bgColor rgb="FF999999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF38761D"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFD966"/>
-          <bgColor rgb="FFFFD966"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF93C47D"/>
-          <bgColor rgb="FF93C47D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF6B26B"/>
-          <bgColor rgb="FFF6B26B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE06666"/>
-          <bgColor rgb="FFE06666"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF999999"/>
-          <bgColor rgb="FF999999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF38761D"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -4405,6 +4132,2890 @@
             <v>1</v>
           </cell>
         </row>
+        <row r="242">
+          <cell r="A242"/>
+          <cell r="C242"/>
+        </row>
+        <row r="243">
+          <cell r="A243"/>
+          <cell r="C243"/>
+        </row>
+        <row r="244">
+          <cell r="A244"/>
+          <cell r="C244"/>
+        </row>
+        <row r="245">
+          <cell r="A245"/>
+          <cell r="C245"/>
+        </row>
+        <row r="246">
+          <cell r="A246"/>
+          <cell r="C246"/>
+        </row>
+        <row r="247">
+          <cell r="A247"/>
+          <cell r="C247"/>
+        </row>
+        <row r="248">
+          <cell r="A248"/>
+          <cell r="C248"/>
+        </row>
+        <row r="249">
+          <cell r="A249"/>
+          <cell r="C249"/>
+        </row>
+        <row r="250">
+          <cell r="A250"/>
+          <cell r="C250"/>
+        </row>
+        <row r="251">
+          <cell r="A251"/>
+          <cell r="C251"/>
+        </row>
+        <row r="252">
+          <cell r="A252"/>
+          <cell r="C252"/>
+        </row>
+        <row r="253">
+          <cell r="A253"/>
+          <cell r="C253"/>
+        </row>
+        <row r="254">
+          <cell r="A254"/>
+          <cell r="C254"/>
+        </row>
+        <row r="255">
+          <cell r="A255"/>
+          <cell r="C255"/>
+        </row>
+        <row r="256">
+          <cell r="A256"/>
+          <cell r="C256"/>
+        </row>
+        <row r="257">
+          <cell r="A257"/>
+          <cell r="C257"/>
+        </row>
+        <row r="258">
+          <cell r="A258"/>
+          <cell r="C258"/>
+        </row>
+        <row r="259">
+          <cell r="A259"/>
+          <cell r="C259"/>
+        </row>
+        <row r="260">
+          <cell r="A260"/>
+          <cell r="C260"/>
+        </row>
+        <row r="261">
+          <cell r="A261"/>
+          <cell r="C261"/>
+        </row>
+        <row r="262">
+          <cell r="A262"/>
+          <cell r="C262"/>
+        </row>
+        <row r="263">
+          <cell r="A263"/>
+          <cell r="C263"/>
+        </row>
+        <row r="264">
+          <cell r="A264"/>
+          <cell r="C264"/>
+        </row>
+        <row r="265">
+          <cell r="A265"/>
+          <cell r="C265"/>
+        </row>
+        <row r="266">
+          <cell r="A266"/>
+          <cell r="C266"/>
+        </row>
+        <row r="267">
+          <cell r="A267"/>
+          <cell r="C267"/>
+        </row>
+        <row r="268">
+          <cell r="A268"/>
+          <cell r="C268"/>
+        </row>
+        <row r="269">
+          <cell r="A269"/>
+          <cell r="C269"/>
+        </row>
+        <row r="270">
+          <cell r="A270"/>
+          <cell r="C270"/>
+        </row>
+        <row r="271">
+          <cell r="A271"/>
+          <cell r="C271"/>
+        </row>
+        <row r="272">
+          <cell r="A272"/>
+          <cell r="C272"/>
+        </row>
+        <row r="273">
+          <cell r="A273"/>
+          <cell r="C273"/>
+        </row>
+        <row r="274">
+          <cell r="A274"/>
+          <cell r="C274"/>
+        </row>
+        <row r="275">
+          <cell r="A275"/>
+          <cell r="C275"/>
+        </row>
+        <row r="276">
+          <cell r="A276"/>
+          <cell r="C276"/>
+        </row>
+        <row r="277">
+          <cell r="A277"/>
+          <cell r="C277"/>
+        </row>
+        <row r="278">
+          <cell r="A278"/>
+          <cell r="C278"/>
+        </row>
+        <row r="279">
+          <cell r="A279"/>
+          <cell r="C279"/>
+        </row>
+        <row r="280">
+          <cell r="A280"/>
+          <cell r="C280"/>
+        </row>
+        <row r="281">
+          <cell r="A281"/>
+          <cell r="C281"/>
+        </row>
+        <row r="282">
+          <cell r="A282"/>
+          <cell r="C282"/>
+        </row>
+        <row r="283">
+          <cell r="A283"/>
+          <cell r="C283"/>
+        </row>
+        <row r="284">
+          <cell r="A284"/>
+          <cell r="C284"/>
+        </row>
+        <row r="285">
+          <cell r="A285"/>
+          <cell r="C285"/>
+        </row>
+        <row r="286">
+          <cell r="A286"/>
+          <cell r="C286"/>
+        </row>
+        <row r="287">
+          <cell r="A287"/>
+          <cell r="C287"/>
+        </row>
+        <row r="288">
+          <cell r="A288"/>
+          <cell r="C288"/>
+        </row>
+        <row r="289">
+          <cell r="A289"/>
+          <cell r="C289"/>
+        </row>
+        <row r="290">
+          <cell r="A290"/>
+          <cell r="C290"/>
+        </row>
+        <row r="291">
+          <cell r="A291"/>
+          <cell r="C291"/>
+        </row>
+        <row r="292">
+          <cell r="A292"/>
+          <cell r="C292"/>
+        </row>
+        <row r="293">
+          <cell r="A293"/>
+          <cell r="C293"/>
+        </row>
+        <row r="294">
+          <cell r="A294"/>
+          <cell r="C294"/>
+        </row>
+        <row r="295">
+          <cell r="A295"/>
+          <cell r="C295"/>
+        </row>
+        <row r="296">
+          <cell r="A296"/>
+          <cell r="C296"/>
+        </row>
+        <row r="297">
+          <cell r="A297"/>
+          <cell r="C297"/>
+        </row>
+        <row r="298">
+          <cell r="A298"/>
+          <cell r="C298"/>
+        </row>
+        <row r="299">
+          <cell r="A299"/>
+          <cell r="C299"/>
+        </row>
+        <row r="300">
+          <cell r="A300"/>
+          <cell r="C300"/>
+        </row>
+        <row r="301">
+          <cell r="A301"/>
+          <cell r="C301"/>
+        </row>
+        <row r="302">
+          <cell r="A302"/>
+          <cell r="C302"/>
+        </row>
+        <row r="303">
+          <cell r="A303"/>
+          <cell r="C303"/>
+        </row>
+        <row r="304">
+          <cell r="A304"/>
+          <cell r="C304"/>
+        </row>
+        <row r="305">
+          <cell r="A305"/>
+          <cell r="C305"/>
+        </row>
+        <row r="306">
+          <cell r="A306"/>
+          <cell r="C306"/>
+        </row>
+        <row r="307">
+          <cell r="A307"/>
+          <cell r="C307"/>
+        </row>
+        <row r="308">
+          <cell r="A308"/>
+          <cell r="C308"/>
+        </row>
+        <row r="309">
+          <cell r="A309"/>
+          <cell r="C309"/>
+        </row>
+        <row r="310">
+          <cell r="A310"/>
+          <cell r="C310"/>
+        </row>
+        <row r="311">
+          <cell r="A311"/>
+          <cell r="C311"/>
+        </row>
+        <row r="312">
+          <cell r="A312"/>
+          <cell r="C312"/>
+        </row>
+        <row r="313">
+          <cell r="A313"/>
+          <cell r="C313"/>
+        </row>
+        <row r="314">
+          <cell r="A314"/>
+          <cell r="C314"/>
+        </row>
+        <row r="315">
+          <cell r="A315"/>
+          <cell r="C315"/>
+        </row>
+        <row r="316">
+          <cell r="A316"/>
+          <cell r="C316"/>
+        </row>
+        <row r="317">
+          <cell r="A317"/>
+          <cell r="C317"/>
+        </row>
+        <row r="318">
+          <cell r="A318"/>
+          <cell r="C318"/>
+        </row>
+        <row r="319">
+          <cell r="A319"/>
+          <cell r="C319"/>
+        </row>
+        <row r="320">
+          <cell r="A320"/>
+          <cell r="C320"/>
+        </row>
+        <row r="321">
+          <cell r="A321"/>
+          <cell r="C321"/>
+        </row>
+        <row r="322">
+          <cell r="A322"/>
+          <cell r="C322"/>
+        </row>
+        <row r="323">
+          <cell r="A323"/>
+          <cell r="C323"/>
+        </row>
+        <row r="324">
+          <cell r="A324"/>
+          <cell r="C324"/>
+        </row>
+        <row r="325">
+          <cell r="A325"/>
+          <cell r="C325"/>
+        </row>
+        <row r="326">
+          <cell r="A326"/>
+          <cell r="C326"/>
+        </row>
+        <row r="327">
+          <cell r="A327"/>
+          <cell r="C327"/>
+        </row>
+        <row r="328">
+          <cell r="A328"/>
+          <cell r="C328"/>
+        </row>
+        <row r="329">
+          <cell r="A329"/>
+          <cell r="C329"/>
+        </row>
+        <row r="330">
+          <cell r="A330"/>
+          <cell r="C330"/>
+        </row>
+        <row r="331">
+          <cell r="A331"/>
+          <cell r="C331"/>
+        </row>
+        <row r="332">
+          <cell r="A332"/>
+          <cell r="C332"/>
+        </row>
+        <row r="333">
+          <cell r="A333"/>
+          <cell r="C333"/>
+        </row>
+        <row r="334">
+          <cell r="A334"/>
+          <cell r="C334"/>
+        </row>
+        <row r="335">
+          <cell r="A335"/>
+          <cell r="C335"/>
+        </row>
+        <row r="336">
+          <cell r="A336"/>
+          <cell r="C336"/>
+        </row>
+        <row r="337">
+          <cell r="A337"/>
+          <cell r="C337"/>
+        </row>
+        <row r="338">
+          <cell r="A338"/>
+          <cell r="C338"/>
+        </row>
+        <row r="339">
+          <cell r="A339"/>
+          <cell r="C339"/>
+        </row>
+        <row r="340">
+          <cell r="A340"/>
+          <cell r="C340"/>
+        </row>
+        <row r="341">
+          <cell r="A341"/>
+          <cell r="C341"/>
+        </row>
+        <row r="342">
+          <cell r="A342"/>
+          <cell r="C342"/>
+        </row>
+        <row r="343">
+          <cell r="A343"/>
+          <cell r="C343"/>
+        </row>
+        <row r="344">
+          <cell r="A344"/>
+          <cell r="C344"/>
+        </row>
+        <row r="345">
+          <cell r="A345"/>
+          <cell r="C345"/>
+        </row>
+        <row r="346">
+          <cell r="A346"/>
+          <cell r="C346"/>
+        </row>
+        <row r="347">
+          <cell r="A347"/>
+          <cell r="C347"/>
+        </row>
+        <row r="348">
+          <cell r="A348"/>
+          <cell r="C348"/>
+        </row>
+        <row r="349">
+          <cell r="A349"/>
+          <cell r="C349"/>
+        </row>
+        <row r="350">
+          <cell r="A350"/>
+          <cell r="C350"/>
+        </row>
+        <row r="351">
+          <cell r="A351"/>
+          <cell r="C351"/>
+        </row>
+        <row r="352">
+          <cell r="A352"/>
+          <cell r="C352"/>
+        </row>
+        <row r="353">
+          <cell r="A353"/>
+          <cell r="C353"/>
+        </row>
+        <row r="354">
+          <cell r="A354"/>
+          <cell r="C354"/>
+        </row>
+        <row r="355">
+          <cell r="A355"/>
+          <cell r="C355"/>
+        </row>
+        <row r="356">
+          <cell r="A356"/>
+          <cell r="C356"/>
+        </row>
+        <row r="357">
+          <cell r="A357"/>
+          <cell r="C357"/>
+        </row>
+        <row r="358">
+          <cell r="A358"/>
+          <cell r="C358"/>
+        </row>
+        <row r="359">
+          <cell r="A359"/>
+          <cell r="C359"/>
+        </row>
+        <row r="360">
+          <cell r="A360"/>
+          <cell r="C360"/>
+        </row>
+        <row r="361">
+          <cell r="A361"/>
+          <cell r="C361"/>
+        </row>
+        <row r="362">
+          <cell r="A362"/>
+          <cell r="C362"/>
+        </row>
+        <row r="363">
+          <cell r="A363"/>
+          <cell r="C363"/>
+        </row>
+        <row r="364">
+          <cell r="A364"/>
+          <cell r="C364"/>
+        </row>
+        <row r="365">
+          <cell r="A365"/>
+          <cell r="C365"/>
+        </row>
+        <row r="366">
+          <cell r="A366"/>
+          <cell r="C366"/>
+        </row>
+        <row r="367">
+          <cell r="A367"/>
+          <cell r="C367"/>
+        </row>
+        <row r="368">
+          <cell r="A368"/>
+          <cell r="C368"/>
+        </row>
+        <row r="369">
+          <cell r="A369"/>
+          <cell r="C369"/>
+        </row>
+        <row r="370">
+          <cell r="A370"/>
+          <cell r="C370"/>
+        </row>
+        <row r="371">
+          <cell r="A371"/>
+          <cell r="C371"/>
+        </row>
+        <row r="372">
+          <cell r="A372"/>
+          <cell r="C372"/>
+        </row>
+        <row r="373">
+          <cell r="A373"/>
+          <cell r="C373"/>
+        </row>
+        <row r="374">
+          <cell r="A374"/>
+          <cell r="C374"/>
+        </row>
+        <row r="375">
+          <cell r="A375"/>
+          <cell r="C375"/>
+        </row>
+        <row r="376">
+          <cell r="A376"/>
+          <cell r="C376"/>
+        </row>
+        <row r="377">
+          <cell r="A377"/>
+          <cell r="C377"/>
+        </row>
+        <row r="378">
+          <cell r="A378"/>
+          <cell r="C378"/>
+        </row>
+        <row r="379">
+          <cell r="A379"/>
+          <cell r="C379"/>
+        </row>
+        <row r="380">
+          <cell r="A380"/>
+          <cell r="C380"/>
+        </row>
+        <row r="381">
+          <cell r="A381"/>
+          <cell r="C381"/>
+        </row>
+        <row r="382">
+          <cell r="A382"/>
+          <cell r="C382"/>
+        </row>
+        <row r="383">
+          <cell r="A383"/>
+          <cell r="C383"/>
+        </row>
+        <row r="384">
+          <cell r="A384"/>
+          <cell r="C384"/>
+        </row>
+        <row r="385">
+          <cell r="A385"/>
+          <cell r="C385"/>
+        </row>
+        <row r="386">
+          <cell r="A386"/>
+          <cell r="C386"/>
+        </row>
+        <row r="387">
+          <cell r="A387"/>
+          <cell r="C387"/>
+        </row>
+        <row r="388">
+          <cell r="A388"/>
+          <cell r="C388"/>
+        </row>
+        <row r="389">
+          <cell r="A389"/>
+          <cell r="C389"/>
+        </row>
+        <row r="390">
+          <cell r="A390"/>
+          <cell r="C390"/>
+        </row>
+        <row r="391">
+          <cell r="A391"/>
+          <cell r="C391"/>
+        </row>
+        <row r="392">
+          <cell r="A392"/>
+          <cell r="C392"/>
+        </row>
+        <row r="393">
+          <cell r="A393"/>
+          <cell r="C393"/>
+        </row>
+        <row r="394">
+          <cell r="A394"/>
+          <cell r="C394"/>
+        </row>
+        <row r="395">
+          <cell r="A395"/>
+          <cell r="C395"/>
+        </row>
+        <row r="396">
+          <cell r="A396"/>
+          <cell r="C396"/>
+        </row>
+        <row r="397">
+          <cell r="A397"/>
+          <cell r="C397"/>
+        </row>
+        <row r="398">
+          <cell r="A398"/>
+          <cell r="C398"/>
+        </row>
+        <row r="399">
+          <cell r="A399"/>
+          <cell r="C399"/>
+        </row>
+        <row r="400">
+          <cell r="A400"/>
+          <cell r="C400"/>
+        </row>
+        <row r="401">
+          <cell r="A401"/>
+          <cell r="C401"/>
+        </row>
+        <row r="402">
+          <cell r="A402"/>
+          <cell r="C402"/>
+        </row>
+        <row r="403">
+          <cell r="A403"/>
+          <cell r="C403"/>
+        </row>
+        <row r="404">
+          <cell r="A404"/>
+          <cell r="C404"/>
+        </row>
+        <row r="405">
+          <cell r="A405"/>
+          <cell r="C405"/>
+        </row>
+        <row r="406">
+          <cell r="A406"/>
+          <cell r="C406"/>
+        </row>
+        <row r="407">
+          <cell r="A407"/>
+          <cell r="C407"/>
+        </row>
+        <row r="408">
+          <cell r="A408"/>
+          <cell r="C408"/>
+        </row>
+        <row r="409">
+          <cell r="A409"/>
+          <cell r="C409"/>
+        </row>
+        <row r="410">
+          <cell r="A410"/>
+          <cell r="C410"/>
+        </row>
+        <row r="411">
+          <cell r="A411"/>
+          <cell r="C411"/>
+        </row>
+        <row r="412">
+          <cell r="A412"/>
+          <cell r="C412"/>
+        </row>
+        <row r="413">
+          <cell r="A413"/>
+          <cell r="C413"/>
+        </row>
+        <row r="414">
+          <cell r="A414"/>
+          <cell r="C414"/>
+        </row>
+        <row r="415">
+          <cell r="A415"/>
+          <cell r="C415"/>
+        </row>
+        <row r="416">
+          <cell r="A416"/>
+          <cell r="C416"/>
+        </row>
+        <row r="417">
+          <cell r="A417"/>
+          <cell r="C417"/>
+        </row>
+        <row r="418">
+          <cell r="A418"/>
+          <cell r="C418"/>
+        </row>
+        <row r="419">
+          <cell r="A419"/>
+          <cell r="C419"/>
+        </row>
+        <row r="420">
+          <cell r="A420"/>
+          <cell r="C420"/>
+        </row>
+        <row r="421">
+          <cell r="A421"/>
+          <cell r="C421"/>
+        </row>
+        <row r="422">
+          <cell r="A422"/>
+          <cell r="C422"/>
+        </row>
+        <row r="423">
+          <cell r="A423"/>
+          <cell r="C423"/>
+        </row>
+        <row r="424">
+          <cell r="A424"/>
+          <cell r="C424"/>
+        </row>
+        <row r="425">
+          <cell r="A425"/>
+          <cell r="C425"/>
+        </row>
+        <row r="426">
+          <cell r="A426"/>
+          <cell r="C426"/>
+        </row>
+        <row r="427">
+          <cell r="A427"/>
+          <cell r="C427"/>
+        </row>
+        <row r="428">
+          <cell r="A428"/>
+          <cell r="C428"/>
+        </row>
+        <row r="429">
+          <cell r="A429"/>
+          <cell r="C429"/>
+        </row>
+        <row r="430">
+          <cell r="A430"/>
+          <cell r="C430"/>
+        </row>
+        <row r="431">
+          <cell r="A431"/>
+          <cell r="C431"/>
+        </row>
+        <row r="432">
+          <cell r="A432"/>
+          <cell r="C432"/>
+        </row>
+        <row r="433">
+          <cell r="A433"/>
+          <cell r="C433"/>
+        </row>
+        <row r="434">
+          <cell r="A434"/>
+          <cell r="C434"/>
+        </row>
+        <row r="435">
+          <cell r="A435"/>
+          <cell r="C435"/>
+        </row>
+        <row r="436">
+          <cell r="A436"/>
+          <cell r="C436"/>
+        </row>
+        <row r="437">
+          <cell r="A437"/>
+          <cell r="C437"/>
+        </row>
+        <row r="438">
+          <cell r="A438"/>
+          <cell r="C438"/>
+        </row>
+        <row r="439">
+          <cell r="A439"/>
+          <cell r="C439"/>
+        </row>
+        <row r="440">
+          <cell r="A440"/>
+          <cell r="C440"/>
+        </row>
+        <row r="441">
+          <cell r="A441"/>
+          <cell r="C441"/>
+        </row>
+        <row r="442">
+          <cell r="A442"/>
+          <cell r="C442"/>
+        </row>
+        <row r="443">
+          <cell r="A443"/>
+          <cell r="C443"/>
+        </row>
+        <row r="444">
+          <cell r="A444"/>
+          <cell r="C444"/>
+        </row>
+        <row r="445">
+          <cell r="A445"/>
+          <cell r="C445"/>
+        </row>
+        <row r="446">
+          <cell r="A446"/>
+          <cell r="C446"/>
+        </row>
+        <row r="447">
+          <cell r="A447"/>
+          <cell r="C447"/>
+        </row>
+        <row r="448">
+          <cell r="A448"/>
+          <cell r="C448"/>
+        </row>
+        <row r="449">
+          <cell r="A449"/>
+          <cell r="C449"/>
+        </row>
+        <row r="450">
+          <cell r="A450"/>
+          <cell r="C450"/>
+        </row>
+        <row r="451">
+          <cell r="A451"/>
+          <cell r="C451"/>
+        </row>
+        <row r="452">
+          <cell r="A452"/>
+          <cell r="C452"/>
+        </row>
+        <row r="453">
+          <cell r="A453"/>
+          <cell r="C453"/>
+        </row>
+        <row r="454">
+          <cell r="A454"/>
+          <cell r="C454"/>
+        </row>
+        <row r="455">
+          <cell r="A455"/>
+          <cell r="C455"/>
+        </row>
+        <row r="456">
+          <cell r="A456"/>
+          <cell r="C456"/>
+        </row>
+        <row r="457">
+          <cell r="A457"/>
+          <cell r="C457"/>
+        </row>
+        <row r="458">
+          <cell r="A458"/>
+          <cell r="C458"/>
+        </row>
+        <row r="459">
+          <cell r="A459"/>
+          <cell r="C459"/>
+        </row>
+        <row r="460">
+          <cell r="A460"/>
+          <cell r="C460"/>
+        </row>
+        <row r="461">
+          <cell r="A461"/>
+          <cell r="C461"/>
+        </row>
+        <row r="462">
+          <cell r="A462"/>
+          <cell r="C462"/>
+        </row>
+        <row r="463">
+          <cell r="A463"/>
+          <cell r="C463"/>
+        </row>
+        <row r="464">
+          <cell r="A464"/>
+          <cell r="C464"/>
+        </row>
+        <row r="465">
+          <cell r="A465"/>
+          <cell r="C465"/>
+        </row>
+        <row r="466">
+          <cell r="A466"/>
+          <cell r="C466"/>
+        </row>
+        <row r="467">
+          <cell r="A467"/>
+          <cell r="C467"/>
+        </row>
+        <row r="468">
+          <cell r="A468"/>
+          <cell r="C468"/>
+        </row>
+        <row r="469">
+          <cell r="A469"/>
+          <cell r="C469"/>
+        </row>
+        <row r="470">
+          <cell r="A470"/>
+          <cell r="C470"/>
+        </row>
+        <row r="471">
+          <cell r="A471"/>
+          <cell r="C471"/>
+        </row>
+        <row r="472">
+          <cell r="A472"/>
+          <cell r="C472"/>
+        </row>
+        <row r="473">
+          <cell r="A473"/>
+          <cell r="C473"/>
+        </row>
+        <row r="474">
+          <cell r="A474"/>
+          <cell r="C474"/>
+        </row>
+        <row r="475">
+          <cell r="A475"/>
+          <cell r="C475"/>
+        </row>
+        <row r="476">
+          <cell r="A476"/>
+          <cell r="C476"/>
+        </row>
+        <row r="477">
+          <cell r="A477"/>
+          <cell r="C477"/>
+        </row>
+        <row r="478">
+          <cell r="A478"/>
+          <cell r="C478"/>
+        </row>
+        <row r="479">
+          <cell r="A479"/>
+          <cell r="C479"/>
+        </row>
+        <row r="480">
+          <cell r="A480"/>
+          <cell r="C480"/>
+        </row>
+        <row r="481">
+          <cell r="A481"/>
+          <cell r="C481"/>
+        </row>
+        <row r="482">
+          <cell r="A482"/>
+          <cell r="C482"/>
+        </row>
+        <row r="483">
+          <cell r="A483"/>
+          <cell r="C483"/>
+        </row>
+        <row r="484">
+          <cell r="A484"/>
+          <cell r="C484"/>
+        </row>
+        <row r="485">
+          <cell r="A485"/>
+          <cell r="C485"/>
+        </row>
+        <row r="486">
+          <cell r="A486"/>
+          <cell r="C486"/>
+        </row>
+        <row r="487">
+          <cell r="A487"/>
+          <cell r="C487"/>
+        </row>
+        <row r="488">
+          <cell r="A488"/>
+          <cell r="C488"/>
+        </row>
+        <row r="489">
+          <cell r="A489"/>
+          <cell r="C489"/>
+        </row>
+        <row r="490">
+          <cell r="A490"/>
+          <cell r="C490"/>
+        </row>
+        <row r="491">
+          <cell r="A491"/>
+          <cell r="C491"/>
+        </row>
+        <row r="492">
+          <cell r="A492"/>
+          <cell r="C492"/>
+        </row>
+        <row r="493">
+          <cell r="A493"/>
+          <cell r="C493"/>
+        </row>
+        <row r="494">
+          <cell r="A494"/>
+          <cell r="C494"/>
+        </row>
+        <row r="495">
+          <cell r="A495"/>
+          <cell r="C495"/>
+        </row>
+        <row r="496">
+          <cell r="A496"/>
+          <cell r="C496"/>
+        </row>
+        <row r="497">
+          <cell r="A497"/>
+          <cell r="C497"/>
+        </row>
+        <row r="498">
+          <cell r="A498"/>
+          <cell r="C498"/>
+        </row>
+        <row r="499">
+          <cell r="A499"/>
+          <cell r="C499"/>
+        </row>
+        <row r="500">
+          <cell r="A500"/>
+          <cell r="C500"/>
+        </row>
+        <row r="501">
+          <cell r="A501"/>
+          <cell r="C501"/>
+        </row>
+        <row r="502">
+          <cell r="A502"/>
+          <cell r="C502"/>
+        </row>
+        <row r="503">
+          <cell r="A503"/>
+          <cell r="C503"/>
+        </row>
+        <row r="504">
+          <cell r="A504"/>
+          <cell r="C504"/>
+        </row>
+        <row r="505">
+          <cell r="A505"/>
+          <cell r="C505"/>
+        </row>
+        <row r="506">
+          <cell r="A506"/>
+          <cell r="C506"/>
+        </row>
+        <row r="507">
+          <cell r="A507"/>
+          <cell r="C507"/>
+        </row>
+        <row r="508">
+          <cell r="A508"/>
+          <cell r="C508"/>
+        </row>
+        <row r="509">
+          <cell r="A509"/>
+          <cell r="C509"/>
+        </row>
+        <row r="510">
+          <cell r="A510"/>
+          <cell r="C510"/>
+        </row>
+        <row r="511">
+          <cell r="A511"/>
+          <cell r="C511"/>
+        </row>
+        <row r="512">
+          <cell r="A512"/>
+          <cell r="C512"/>
+        </row>
+        <row r="513">
+          <cell r="A513"/>
+          <cell r="C513"/>
+        </row>
+        <row r="514">
+          <cell r="A514"/>
+          <cell r="C514"/>
+        </row>
+        <row r="515">
+          <cell r="A515"/>
+          <cell r="C515"/>
+        </row>
+        <row r="516">
+          <cell r="A516"/>
+          <cell r="C516"/>
+        </row>
+        <row r="517">
+          <cell r="A517"/>
+          <cell r="C517"/>
+        </row>
+        <row r="518">
+          <cell r="A518"/>
+          <cell r="C518"/>
+        </row>
+        <row r="519">
+          <cell r="A519"/>
+          <cell r="C519"/>
+        </row>
+        <row r="520">
+          <cell r="A520"/>
+          <cell r="C520"/>
+        </row>
+        <row r="521">
+          <cell r="A521"/>
+          <cell r="C521"/>
+        </row>
+        <row r="522">
+          <cell r="A522"/>
+          <cell r="C522"/>
+        </row>
+        <row r="523">
+          <cell r="A523"/>
+          <cell r="C523"/>
+        </row>
+        <row r="524">
+          <cell r="A524"/>
+          <cell r="C524"/>
+        </row>
+        <row r="525">
+          <cell r="A525"/>
+          <cell r="C525"/>
+        </row>
+        <row r="526">
+          <cell r="A526"/>
+          <cell r="C526"/>
+        </row>
+        <row r="527">
+          <cell r="A527"/>
+          <cell r="C527"/>
+        </row>
+        <row r="528">
+          <cell r="A528"/>
+          <cell r="C528"/>
+        </row>
+        <row r="529">
+          <cell r="A529"/>
+          <cell r="C529"/>
+        </row>
+        <row r="530">
+          <cell r="A530"/>
+          <cell r="C530"/>
+        </row>
+        <row r="531">
+          <cell r="A531"/>
+          <cell r="C531"/>
+        </row>
+        <row r="532">
+          <cell r="A532"/>
+          <cell r="C532"/>
+        </row>
+        <row r="533">
+          <cell r="A533"/>
+          <cell r="C533"/>
+        </row>
+        <row r="534">
+          <cell r="A534"/>
+          <cell r="C534"/>
+        </row>
+        <row r="535">
+          <cell r="A535"/>
+          <cell r="C535"/>
+        </row>
+        <row r="536">
+          <cell r="A536"/>
+          <cell r="C536"/>
+        </row>
+        <row r="537">
+          <cell r="A537"/>
+          <cell r="C537"/>
+        </row>
+        <row r="538">
+          <cell r="A538"/>
+          <cell r="C538"/>
+        </row>
+        <row r="539">
+          <cell r="A539"/>
+          <cell r="C539"/>
+        </row>
+        <row r="540">
+          <cell r="A540"/>
+          <cell r="C540"/>
+        </row>
+        <row r="541">
+          <cell r="A541"/>
+          <cell r="C541"/>
+        </row>
+        <row r="542">
+          <cell r="A542"/>
+          <cell r="C542"/>
+        </row>
+        <row r="543">
+          <cell r="A543"/>
+          <cell r="C543"/>
+        </row>
+        <row r="544">
+          <cell r="A544"/>
+          <cell r="C544"/>
+        </row>
+        <row r="545">
+          <cell r="A545"/>
+          <cell r="C545"/>
+        </row>
+        <row r="546">
+          <cell r="A546"/>
+          <cell r="C546"/>
+        </row>
+        <row r="547">
+          <cell r="A547"/>
+          <cell r="C547"/>
+        </row>
+        <row r="548">
+          <cell r="A548"/>
+          <cell r="C548"/>
+        </row>
+        <row r="549">
+          <cell r="A549"/>
+          <cell r="C549"/>
+        </row>
+        <row r="550">
+          <cell r="A550"/>
+          <cell r="C550"/>
+        </row>
+        <row r="551">
+          <cell r="A551"/>
+          <cell r="C551"/>
+        </row>
+        <row r="552">
+          <cell r="A552"/>
+          <cell r="C552"/>
+        </row>
+        <row r="553">
+          <cell r="A553"/>
+          <cell r="C553"/>
+        </row>
+        <row r="554">
+          <cell r="A554"/>
+          <cell r="C554"/>
+        </row>
+        <row r="555">
+          <cell r="A555"/>
+          <cell r="C555"/>
+        </row>
+        <row r="556">
+          <cell r="A556"/>
+          <cell r="C556"/>
+        </row>
+        <row r="557">
+          <cell r="A557"/>
+          <cell r="C557"/>
+        </row>
+        <row r="558">
+          <cell r="A558"/>
+          <cell r="C558"/>
+        </row>
+        <row r="559">
+          <cell r="A559"/>
+          <cell r="C559"/>
+        </row>
+        <row r="560">
+          <cell r="A560"/>
+          <cell r="C560"/>
+        </row>
+        <row r="561">
+          <cell r="A561"/>
+          <cell r="C561"/>
+        </row>
+        <row r="562">
+          <cell r="A562"/>
+          <cell r="C562"/>
+        </row>
+        <row r="563">
+          <cell r="A563"/>
+          <cell r="C563"/>
+        </row>
+        <row r="564">
+          <cell r="A564"/>
+          <cell r="C564"/>
+        </row>
+        <row r="565">
+          <cell r="A565"/>
+          <cell r="C565"/>
+        </row>
+        <row r="566">
+          <cell r="A566"/>
+          <cell r="C566"/>
+        </row>
+        <row r="567">
+          <cell r="A567"/>
+          <cell r="C567"/>
+        </row>
+        <row r="568">
+          <cell r="A568"/>
+          <cell r="C568"/>
+        </row>
+        <row r="569">
+          <cell r="A569"/>
+          <cell r="C569"/>
+        </row>
+        <row r="570">
+          <cell r="A570"/>
+          <cell r="C570"/>
+        </row>
+        <row r="571">
+          <cell r="A571"/>
+          <cell r="C571"/>
+        </row>
+        <row r="572">
+          <cell r="A572"/>
+          <cell r="C572"/>
+        </row>
+        <row r="573">
+          <cell r="A573"/>
+          <cell r="C573"/>
+        </row>
+        <row r="574">
+          <cell r="A574"/>
+          <cell r="C574"/>
+        </row>
+        <row r="575">
+          <cell r="A575"/>
+          <cell r="C575"/>
+        </row>
+        <row r="576">
+          <cell r="A576"/>
+          <cell r="C576"/>
+        </row>
+        <row r="577">
+          <cell r="A577"/>
+          <cell r="C577"/>
+        </row>
+        <row r="578">
+          <cell r="A578"/>
+          <cell r="C578"/>
+        </row>
+        <row r="579">
+          <cell r="A579"/>
+          <cell r="C579"/>
+        </row>
+        <row r="580">
+          <cell r="A580"/>
+          <cell r="C580"/>
+        </row>
+        <row r="581">
+          <cell r="A581"/>
+          <cell r="C581"/>
+        </row>
+        <row r="582">
+          <cell r="A582"/>
+          <cell r="C582"/>
+        </row>
+        <row r="583">
+          <cell r="A583"/>
+          <cell r="C583"/>
+        </row>
+        <row r="584">
+          <cell r="A584"/>
+          <cell r="C584"/>
+        </row>
+        <row r="585">
+          <cell r="A585"/>
+          <cell r="C585"/>
+        </row>
+        <row r="586">
+          <cell r="A586"/>
+          <cell r="C586"/>
+        </row>
+        <row r="587">
+          <cell r="A587"/>
+          <cell r="C587"/>
+        </row>
+        <row r="588">
+          <cell r="A588"/>
+          <cell r="C588"/>
+        </row>
+        <row r="589">
+          <cell r="A589"/>
+          <cell r="C589"/>
+        </row>
+        <row r="590">
+          <cell r="A590"/>
+          <cell r="C590"/>
+        </row>
+        <row r="591">
+          <cell r="A591"/>
+          <cell r="C591"/>
+        </row>
+        <row r="592">
+          <cell r="A592"/>
+          <cell r="C592"/>
+        </row>
+        <row r="593">
+          <cell r="A593"/>
+          <cell r="C593"/>
+        </row>
+        <row r="594">
+          <cell r="A594"/>
+          <cell r="C594"/>
+        </row>
+        <row r="595">
+          <cell r="A595"/>
+          <cell r="C595"/>
+        </row>
+        <row r="596">
+          <cell r="A596"/>
+          <cell r="C596"/>
+        </row>
+        <row r="597">
+          <cell r="A597"/>
+          <cell r="C597"/>
+        </row>
+        <row r="598">
+          <cell r="A598"/>
+          <cell r="C598"/>
+        </row>
+        <row r="599">
+          <cell r="A599"/>
+          <cell r="C599"/>
+        </row>
+        <row r="600">
+          <cell r="A600"/>
+          <cell r="C600"/>
+        </row>
+        <row r="601">
+          <cell r="A601"/>
+          <cell r="C601"/>
+        </row>
+        <row r="602">
+          <cell r="A602"/>
+          <cell r="C602"/>
+        </row>
+        <row r="603">
+          <cell r="A603"/>
+          <cell r="C603"/>
+        </row>
+        <row r="604">
+          <cell r="A604"/>
+          <cell r="C604"/>
+        </row>
+        <row r="605">
+          <cell r="A605"/>
+          <cell r="C605"/>
+        </row>
+        <row r="606">
+          <cell r="A606"/>
+          <cell r="C606"/>
+        </row>
+        <row r="607">
+          <cell r="A607"/>
+          <cell r="C607"/>
+        </row>
+        <row r="608">
+          <cell r="A608"/>
+          <cell r="C608"/>
+        </row>
+        <row r="609">
+          <cell r="A609"/>
+          <cell r="C609"/>
+        </row>
+        <row r="610">
+          <cell r="A610"/>
+          <cell r="C610"/>
+        </row>
+        <row r="611">
+          <cell r="A611"/>
+          <cell r="C611"/>
+        </row>
+        <row r="612">
+          <cell r="A612"/>
+          <cell r="C612"/>
+        </row>
+        <row r="613">
+          <cell r="A613"/>
+          <cell r="C613"/>
+        </row>
+        <row r="614">
+          <cell r="A614"/>
+          <cell r="C614"/>
+        </row>
+        <row r="615">
+          <cell r="A615"/>
+          <cell r="C615"/>
+        </row>
+        <row r="616">
+          <cell r="A616"/>
+          <cell r="C616"/>
+        </row>
+        <row r="617">
+          <cell r="A617"/>
+          <cell r="C617"/>
+        </row>
+        <row r="618">
+          <cell r="A618"/>
+          <cell r="C618"/>
+        </row>
+        <row r="619">
+          <cell r="A619"/>
+          <cell r="C619"/>
+        </row>
+        <row r="620">
+          <cell r="A620"/>
+          <cell r="C620"/>
+        </row>
+        <row r="621">
+          <cell r="A621"/>
+          <cell r="C621"/>
+        </row>
+        <row r="622">
+          <cell r="A622"/>
+          <cell r="C622"/>
+        </row>
+        <row r="623">
+          <cell r="A623"/>
+          <cell r="C623"/>
+        </row>
+        <row r="624">
+          <cell r="A624"/>
+          <cell r="C624"/>
+        </row>
+        <row r="625">
+          <cell r="A625"/>
+          <cell r="C625"/>
+        </row>
+        <row r="626">
+          <cell r="A626"/>
+          <cell r="C626"/>
+        </row>
+        <row r="627">
+          <cell r="A627"/>
+          <cell r="C627"/>
+        </row>
+        <row r="628">
+          <cell r="A628"/>
+          <cell r="C628"/>
+        </row>
+        <row r="629">
+          <cell r="A629"/>
+          <cell r="C629"/>
+        </row>
+        <row r="630">
+          <cell r="A630"/>
+          <cell r="C630"/>
+        </row>
+        <row r="631">
+          <cell r="A631"/>
+          <cell r="C631"/>
+        </row>
+        <row r="632">
+          <cell r="A632"/>
+          <cell r="C632"/>
+        </row>
+        <row r="633">
+          <cell r="A633"/>
+          <cell r="C633"/>
+        </row>
+        <row r="634">
+          <cell r="A634"/>
+          <cell r="C634"/>
+        </row>
+        <row r="635">
+          <cell r="A635"/>
+          <cell r="C635"/>
+        </row>
+        <row r="636">
+          <cell r="A636"/>
+          <cell r="C636"/>
+        </row>
+        <row r="637">
+          <cell r="A637"/>
+          <cell r="C637"/>
+        </row>
+        <row r="638">
+          <cell r="A638"/>
+          <cell r="C638"/>
+        </row>
+        <row r="639">
+          <cell r="A639"/>
+          <cell r="C639"/>
+        </row>
+        <row r="640">
+          <cell r="A640"/>
+          <cell r="C640"/>
+        </row>
+        <row r="641">
+          <cell r="A641"/>
+          <cell r="C641"/>
+        </row>
+        <row r="642">
+          <cell r="A642"/>
+          <cell r="C642"/>
+        </row>
+        <row r="643">
+          <cell r="A643"/>
+          <cell r="C643"/>
+        </row>
+        <row r="644">
+          <cell r="A644"/>
+          <cell r="C644"/>
+        </row>
+        <row r="645">
+          <cell r="A645"/>
+          <cell r="C645"/>
+        </row>
+        <row r="646">
+          <cell r="A646"/>
+          <cell r="C646"/>
+        </row>
+        <row r="647">
+          <cell r="A647"/>
+          <cell r="C647"/>
+        </row>
+        <row r="648">
+          <cell r="A648"/>
+          <cell r="C648"/>
+        </row>
+        <row r="649">
+          <cell r="A649"/>
+          <cell r="C649"/>
+        </row>
+        <row r="650">
+          <cell r="A650"/>
+          <cell r="C650"/>
+        </row>
+        <row r="651">
+          <cell r="A651"/>
+          <cell r="C651"/>
+        </row>
+        <row r="652">
+          <cell r="A652"/>
+          <cell r="C652"/>
+        </row>
+        <row r="653">
+          <cell r="A653"/>
+          <cell r="C653"/>
+        </row>
+        <row r="654">
+          <cell r="A654"/>
+          <cell r="C654"/>
+        </row>
+        <row r="655">
+          <cell r="A655"/>
+          <cell r="C655"/>
+        </row>
+        <row r="656">
+          <cell r="A656"/>
+          <cell r="C656"/>
+        </row>
+        <row r="657">
+          <cell r="A657"/>
+          <cell r="C657"/>
+        </row>
+        <row r="658">
+          <cell r="A658"/>
+          <cell r="C658"/>
+        </row>
+        <row r="659">
+          <cell r="A659"/>
+          <cell r="C659"/>
+        </row>
+        <row r="660">
+          <cell r="A660"/>
+          <cell r="C660"/>
+        </row>
+        <row r="661">
+          <cell r="A661"/>
+          <cell r="C661"/>
+        </row>
+        <row r="662">
+          <cell r="A662"/>
+          <cell r="C662"/>
+        </row>
+        <row r="663">
+          <cell r="A663"/>
+          <cell r="C663"/>
+        </row>
+        <row r="664">
+          <cell r="A664"/>
+          <cell r="C664"/>
+        </row>
+        <row r="665">
+          <cell r="A665"/>
+          <cell r="C665"/>
+        </row>
+        <row r="666">
+          <cell r="A666"/>
+          <cell r="C666"/>
+        </row>
+        <row r="667">
+          <cell r="A667"/>
+          <cell r="C667"/>
+        </row>
+        <row r="668">
+          <cell r="A668"/>
+          <cell r="C668"/>
+        </row>
+        <row r="669">
+          <cell r="A669"/>
+          <cell r="C669"/>
+        </row>
+        <row r="670">
+          <cell r="A670"/>
+          <cell r="C670"/>
+        </row>
+        <row r="671">
+          <cell r="A671"/>
+          <cell r="C671"/>
+        </row>
+        <row r="672">
+          <cell r="A672"/>
+          <cell r="C672"/>
+        </row>
+        <row r="673">
+          <cell r="A673"/>
+          <cell r="C673"/>
+        </row>
+        <row r="674">
+          <cell r="A674"/>
+          <cell r="C674"/>
+        </row>
+        <row r="675">
+          <cell r="A675"/>
+          <cell r="C675"/>
+        </row>
+        <row r="676">
+          <cell r="A676"/>
+          <cell r="C676"/>
+        </row>
+        <row r="677">
+          <cell r="A677"/>
+          <cell r="C677"/>
+        </row>
+        <row r="678">
+          <cell r="A678"/>
+          <cell r="C678"/>
+        </row>
+        <row r="679">
+          <cell r="A679"/>
+          <cell r="C679"/>
+        </row>
+        <row r="680">
+          <cell r="A680"/>
+          <cell r="C680"/>
+        </row>
+        <row r="681">
+          <cell r="A681"/>
+          <cell r="C681"/>
+        </row>
+        <row r="682">
+          <cell r="A682"/>
+          <cell r="C682"/>
+        </row>
+        <row r="683">
+          <cell r="A683"/>
+          <cell r="C683"/>
+        </row>
+        <row r="684">
+          <cell r="A684"/>
+          <cell r="C684"/>
+        </row>
+        <row r="685">
+          <cell r="A685"/>
+          <cell r="C685"/>
+        </row>
+        <row r="686">
+          <cell r="A686"/>
+          <cell r="C686"/>
+        </row>
+        <row r="687">
+          <cell r="A687"/>
+          <cell r="C687"/>
+        </row>
+        <row r="688">
+          <cell r="A688"/>
+          <cell r="C688"/>
+        </row>
+        <row r="689">
+          <cell r="A689"/>
+          <cell r="C689"/>
+        </row>
+        <row r="690">
+          <cell r="A690"/>
+          <cell r="C690"/>
+        </row>
+        <row r="691">
+          <cell r="A691"/>
+          <cell r="C691"/>
+        </row>
+        <row r="692">
+          <cell r="A692"/>
+          <cell r="C692"/>
+        </row>
+        <row r="693">
+          <cell r="A693"/>
+          <cell r="C693"/>
+        </row>
+        <row r="694">
+          <cell r="A694"/>
+          <cell r="C694"/>
+        </row>
+        <row r="695">
+          <cell r="A695"/>
+          <cell r="C695"/>
+        </row>
+        <row r="696">
+          <cell r="A696"/>
+          <cell r="C696"/>
+        </row>
+        <row r="697">
+          <cell r="A697"/>
+          <cell r="C697"/>
+        </row>
+        <row r="698">
+          <cell r="A698"/>
+          <cell r="C698"/>
+        </row>
+        <row r="699">
+          <cell r="A699"/>
+          <cell r="C699"/>
+        </row>
+        <row r="700">
+          <cell r="A700"/>
+          <cell r="C700"/>
+        </row>
+        <row r="701">
+          <cell r="A701"/>
+          <cell r="C701"/>
+        </row>
+        <row r="702">
+          <cell r="A702"/>
+          <cell r="C702"/>
+        </row>
+        <row r="703">
+          <cell r="A703"/>
+          <cell r="C703"/>
+        </row>
+        <row r="704">
+          <cell r="A704"/>
+          <cell r="C704"/>
+        </row>
+        <row r="705">
+          <cell r="A705"/>
+          <cell r="C705"/>
+        </row>
+        <row r="706">
+          <cell r="A706"/>
+          <cell r="C706"/>
+        </row>
+        <row r="707">
+          <cell r="A707"/>
+          <cell r="C707"/>
+        </row>
+        <row r="708">
+          <cell r="A708"/>
+          <cell r="C708"/>
+        </row>
+        <row r="709">
+          <cell r="A709"/>
+          <cell r="C709"/>
+        </row>
+        <row r="710">
+          <cell r="A710"/>
+          <cell r="C710"/>
+        </row>
+        <row r="711">
+          <cell r="A711"/>
+          <cell r="C711"/>
+        </row>
+        <row r="712">
+          <cell r="A712"/>
+          <cell r="C712"/>
+        </row>
+        <row r="713">
+          <cell r="A713"/>
+          <cell r="C713"/>
+        </row>
+        <row r="714">
+          <cell r="A714"/>
+          <cell r="C714"/>
+        </row>
+        <row r="715">
+          <cell r="A715"/>
+          <cell r="C715"/>
+        </row>
+        <row r="716">
+          <cell r="A716"/>
+          <cell r="C716"/>
+        </row>
+        <row r="717">
+          <cell r="A717"/>
+          <cell r="C717"/>
+        </row>
+        <row r="718">
+          <cell r="A718"/>
+          <cell r="C718"/>
+        </row>
+        <row r="719">
+          <cell r="A719"/>
+          <cell r="C719"/>
+        </row>
+        <row r="720">
+          <cell r="A720"/>
+          <cell r="C720"/>
+        </row>
+        <row r="721">
+          <cell r="A721"/>
+          <cell r="C721"/>
+        </row>
+        <row r="722">
+          <cell r="A722"/>
+          <cell r="C722"/>
+        </row>
+        <row r="723">
+          <cell r="A723"/>
+          <cell r="C723"/>
+        </row>
+        <row r="724">
+          <cell r="A724"/>
+          <cell r="C724"/>
+        </row>
+        <row r="725">
+          <cell r="A725"/>
+          <cell r="C725"/>
+        </row>
+        <row r="726">
+          <cell r="A726"/>
+          <cell r="C726"/>
+        </row>
+        <row r="727">
+          <cell r="A727"/>
+          <cell r="C727"/>
+        </row>
+        <row r="728">
+          <cell r="A728"/>
+          <cell r="C728"/>
+        </row>
+        <row r="729">
+          <cell r="A729"/>
+          <cell r="C729"/>
+        </row>
+        <row r="730">
+          <cell r="A730"/>
+          <cell r="C730"/>
+        </row>
+        <row r="731">
+          <cell r="A731"/>
+          <cell r="C731"/>
+        </row>
+        <row r="732">
+          <cell r="A732"/>
+          <cell r="C732"/>
+        </row>
+        <row r="733">
+          <cell r="A733"/>
+          <cell r="C733"/>
+        </row>
+        <row r="734">
+          <cell r="A734"/>
+          <cell r="C734"/>
+        </row>
+        <row r="735">
+          <cell r="A735"/>
+          <cell r="C735"/>
+        </row>
+        <row r="736">
+          <cell r="A736"/>
+          <cell r="C736"/>
+        </row>
+        <row r="737">
+          <cell r="A737"/>
+          <cell r="C737"/>
+        </row>
+        <row r="738">
+          <cell r="A738"/>
+          <cell r="C738"/>
+        </row>
+        <row r="739">
+          <cell r="A739"/>
+          <cell r="C739"/>
+        </row>
+        <row r="740">
+          <cell r="A740"/>
+          <cell r="C740"/>
+        </row>
+        <row r="741">
+          <cell r="A741"/>
+          <cell r="C741"/>
+        </row>
+        <row r="742">
+          <cell r="A742"/>
+          <cell r="C742"/>
+        </row>
+        <row r="743">
+          <cell r="A743"/>
+          <cell r="C743"/>
+        </row>
+        <row r="744">
+          <cell r="A744"/>
+          <cell r="C744"/>
+        </row>
+        <row r="745">
+          <cell r="A745"/>
+          <cell r="C745"/>
+        </row>
+        <row r="746">
+          <cell r="A746"/>
+          <cell r="C746"/>
+        </row>
+        <row r="747">
+          <cell r="A747"/>
+          <cell r="C747"/>
+        </row>
+        <row r="748">
+          <cell r="A748"/>
+          <cell r="C748"/>
+        </row>
+        <row r="749">
+          <cell r="A749"/>
+          <cell r="C749"/>
+        </row>
+        <row r="750">
+          <cell r="A750"/>
+          <cell r="C750"/>
+        </row>
+        <row r="751">
+          <cell r="A751"/>
+          <cell r="C751"/>
+        </row>
+        <row r="752">
+          <cell r="A752"/>
+          <cell r="C752"/>
+        </row>
+        <row r="753">
+          <cell r="A753"/>
+          <cell r="C753"/>
+        </row>
+        <row r="754">
+          <cell r="A754"/>
+          <cell r="C754"/>
+        </row>
+        <row r="755">
+          <cell r="A755"/>
+          <cell r="C755"/>
+        </row>
+        <row r="756">
+          <cell r="A756"/>
+          <cell r="C756"/>
+        </row>
+        <row r="757">
+          <cell r="A757"/>
+          <cell r="C757"/>
+        </row>
+        <row r="758">
+          <cell r="A758"/>
+          <cell r="C758"/>
+        </row>
+        <row r="759">
+          <cell r="A759"/>
+          <cell r="C759"/>
+        </row>
+        <row r="760">
+          <cell r="A760"/>
+          <cell r="C760"/>
+        </row>
+        <row r="761">
+          <cell r="A761"/>
+          <cell r="C761"/>
+        </row>
+        <row r="762">
+          <cell r="A762"/>
+          <cell r="C762"/>
+        </row>
+        <row r="763">
+          <cell r="A763"/>
+          <cell r="C763"/>
+        </row>
+        <row r="764">
+          <cell r="A764"/>
+          <cell r="C764"/>
+        </row>
+        <row r="765">
+          <cell r="A765"/>
+          <cell r="C765"/>
+        </row>
+        <row r="766">
+          <cell r="A766"/>
+          <cell r="C766"/>
+        </row>
+        <row r="767">
+          <cell r="A767"/>
+          <cell r="C767"/>
+        </row>
+        <row r="768">
+          <cell r="A768"/>
+          <cell r="C768"/>
+        </row>
+        <row r="769">
+          <cell r="A769"/>
+          <cell r="C769"/>
+        </row>
+        <row r="770">
+          <cell r="A770"/>
+          <cell r="C770"/>
+        </row>
+        <row r="771">
+          <cell r="A771"/>
+          <cell r="C771"/>
+        </row>
+        <row r="772">
+          <cell r="A772"/>
+          <cell r="C772"/>
+        </row>
+        <row r="773">
+          <cell r="A773"/>
+          <cell r="C773"/>
+        </row>
+        <row r="774">
+          <cell r="A774"/>
+          <cell r="C774"/>
+        </row>
+        <row r="775">
+          <cell r="A775"/>
+          <cell r="C775"/>
+        </row>
+        <row r="776">
+          <cell r="A776"/>
+          <cell r="C776"/>
+        </row>
+        <row r="777">
+          <cell r="A777"/>
+          <cell r="C777"/>
+        </row>
+        <row r="778">
+          <cell r="A778"/>
+          <cell r="C778"/>
+        </row>
+        <row r="779">
+          <cell r="A779"/>
+          <cell r="C779"/>
+        </row>
+        <row r="780">
+          <cell r="A780"/>
+          <cell r="C780"/>
+        </row>
+        <row r="781">
+          <cell r="A781"/>
+          <cell r="C781"/>
+        </row>
+        <row r="782">
+          <cell r="A782"/>
+          <cell r="C782"/>
+        </row>
+        <row r="783">
+          <cell r="A783"/>
+          <cell r="C783"/>
+        </row>
+        <row r="784">
+          <cell r="A784"/>
+          <cell r="C784"/>
+        </row>
+        <row r="785">
+          <cell r="A785"/>
+          <cell r="C785"/>
+        </row>
+        <row r="786">
+          <cell r="A786"/>
+          <cell r="C786"/>
+        </row>
+        <row r="787">
+          <cell r="A787"/>
+          <cell r="C787"/>
+        </row>
+        <row r="788">
+          <cell r="A788"/>
+          <cell r="C788"/>
+        </row>
+        <row r="789">
+          <cell r="A789"/>
+          <cell r="C789"/>
+        </row>
+        <row r="790">
+          <cell r="A790"/>
+          <cell r="C790"/>
+        </row>
+        <row r="791">
+          <cell r="A791"/>
+          <cell r="C791"/>
+        </row>
+        <row r="792">
+          <cell r="A792"/>
+          <cell r="C792"/>
+        </row>
+        <row r="793">
+          <cell r="A793"/>
+          <cell r="C793"/>
+        </row>
+        <row r="794">
+          <cell r="A794"/>
+          <cell r="C794"/>
+        </row>
+        <row r="795">
+          <cell r="A795"/>
+          <cell r="C795"/>
+        </row>
+        <row r="796">
+          <cell r="A796"/>
+          <cell r="C796"/>
+        </row>
+        <row r="797">
+          <cell r="A797"/>
+          <cell r="C797"/>
+        </row>
+        <row r="798">
+          <cell r="A798"/>
+          <cell r="C798"/>
+        </row>
+        <row r="799">
+          <cell r="A799"/>
+          <cell r="C799"/>
+        </row>
+        <row r="800">
+          <cell r="A800"/>
+          <cell r="C800"/>
+        </row>
+        <row r="801">
+          <cell r="A801"/>
+          <cell r="C801"/>
+        </row>
+        <row r="802">
+          <cell r="A802"/>
+          <cell r="C802"/>
+        </row>
+        <row r="803">
+          <cell r="A803"/>
+          <cell r="C803"/>
+        </row>
+        <row r="804">
+          <cell r="A804"/>
+          <cell r="C804"/>
+        </row>
+        <row r="805">
+          <cell r="A805"/>
+          <cell r="C805"/>
+        </row>
+        <row r="806">
+          <cell r="A806"/>
+          <cell r="C806"/>
+        </row>
+        <row r="807">
+          <cell r="A807"/>
+          <cell r="C807"/>
+        </row>
+        <row r="808">
+          <cell r="A808"/>
+          <cell r="C808"/>
+        </row>
+        <row r="809">
+          <cell r="A809"/>
+          <cell r="C809"/>
+        </row>
+        <row r="810">
+          <cell r="A810"/>
+          <cell r="C810"/>
+        </row>
+        <row r="811">
+          <cell r="A811"/>
+          <cell r="C811"/>
+        </row>
+        <row r="812">
+          <cell r="A812"/>
+          <cell r="C812"/>
+        </row>
+        <row r="813">
+          <cell r="A813"/>
+          <cell r="C813"/>
+        </row>
+        <row r="814">
+          <cell r="A814"/>
+          <cell r="C814"/>
+        </row>
+        <row r="815">
+          <cell r="A815"/>
+          <cell r="C815"/>
+        </row>
+        <row r="816">
+          <cell r="A816"/>
+          <cell r="C816"/>
+        </row>
+        <row r="817">
+          <cell r="A817"/>
+          <cell r="C817"/>
+        </row>
+        <row r="818">
+          <cell r="A818"/>
+          <cell r="C818"/>
+        </row>
+        <row r="819">
+          <cell r="A819"/>
+          <cell r="C819"/>
+        </row>
+        <row r="820">
+          <cell r="A820"/>
+          <cell r="C820"/>
+        </row>
+        <row r="821">
+          <cell r="A821"/>
+          <cell r="C821"/>
+        </row>
+        <row r="822">
+          <cell r="A822"/>
+          <cell r="C822"/>
+        </row>
+        <row r="823">
+          <cell r="A823"/>
+          <cell r="C823"/>
+        </row>
+        <row r="824">
+          <cell r="A824"/>
+          <cell r="C824"/>
+        </row>
+        <row r="825">
+          <cell r="A825"/>
+          <cell r="C825"/>
+        </row>
+        <row r="826">
+          <cell r="A826"/>
+          <cell r="C826"/>
+        </row>
+        <row r="827">
+          <cell r="A827"/>
+          <cell r="C827"/>
+        </row>
+        <row r="828">
+          <cell r="A828"/>
+          <cell r="C828"/>
+        </row>
+        <row r="829">
+          <cell r="A829"/>
+          <cell r="C829"/>
+        </row>
+        <row r="830">
+          <cell r="A830"/>
+          <cell r="C830"/>
+        </row>
+        <row r="831">
+          <cell r="A831"/>
+          <cell r="C831"/>
+        </row>
+        <row r="832">
+          <cell r="A832"/>
+          <cell r="C832"/>
+        </row>
+        <row r="833">
+          <cell r="A833"/>
+          <cell r="C833"/>
+        </row>
+        <row r="834">
+          <cell r="A834"/>
+          <cell r="C834"/>
+        </row>
+        <row r="835">
+          <cell r="A835"/>
+          <cell r="C835"/>
+        </row>
+        <row r="836">
+          <cell r="A836"/>
+          <cell r="C836"/>
+        </row>
+        <row r="837">
+          <cell r="A837"/>
+          <cell r="C837"/>
+        </row>
+        <row r="838">
+          <cell r="A838"/>
+          <cell r="C838"/>
+        </row>
+        <row r="839">
+          <cell r="A839"/>
+          <cell r="C839"/>
+        </row>
+        <row r="840">
+          <cell r="A840"/>
+          <cell r="C840"/>
+        </row>
+        <row r="841">
+          <cell r="A841"/>
+          <cell r="C841"/>
+        </row>
+        <row r="842">
+          <cell r="A842"/>
+          <cell r="C842"/>
+        </row>
+        <row r="843">
+          <cell r="A843"/>
+          <cell r="C843"/>
+        </row>
+        <row r="844">
+          <cell r="A844"/>
+          <cell r="C844"/>
+        </row>
+        <row r="845">
+          <cell r="A845"/>
+          <cell r="C845"/>
+        </row>
+        <row r="846">
+          <cell r="A846"/>
+          <cell r="C846"/>
+        </row>
+        <row r="847">
+          <cell r="A847"/>
+          <cell r="C847"/>
+        </row>
+        <row r="848">
+          <cell r="A848"/>
+          <cell r="C848"/>
+        </row>
+        <row r="849">
+          <cell r="A849"/>
+          <cell r="C849"/>
+        </row>
+        <row r="850">
+          <cell r="A850"/>
+          <cell r="C850"/>
+        </row>
+        <row r="851">
+          <cell r="A851"/>
+          <cell r="C851"/>
+        </row>
+        <row r="852">
+          <cell r="A852"/>
+          <cell r="C852"/>
+        </row>
+        <row r="853">
+          <cell r="A853"/>
+          <cell r="C853"/>
+        </row>
+        <row r="854">
+          <cell r="A854"/>
+          <cell r="C854"/>
+        </row>
+        <row r="855">
+          <cell r="A855"/>
+          <cell r="C855"/>
+        </row>
+        <row r="856">
+          <cell r="A856"/>
+          <cell r="C856"/>
+        </row>
+        <row r="857">
+          <cell r="A857"/>
+          <cell r="C857"/>
+        </row>
+        <row r="858">
+          <cell r="A858"/>
+          <cell r="C858"/>
+        </row>
+        <row r="859">
+          <cell r="A859"/>
+          <cell r="C859"/>
+        </row>
+        <row r="860">
+          <cell r="A860"/>
+          <cell r="C860"/>
+        </row>
+        <row r="861">
+          <cell r="A861"/>
+          <cell r="C861"/>
+        </row>
+        <row r="862">
+          <cell r="A862"/>
+          <cell r="C862"/>
+        </row>
+        <row r="863">
+          <cell r="A863"/>
+          <cell r="C863"/>
+        </row>
+        <row r="864">
+          <cell r="A864"/>
+          <cell r="C864"/>
+        </row>
+        <row r="865">
+          <cell r="A865"/>
+          <cell r="C865"/>
+        </row>
+        <row r="866">
+          <cell r="A866"/>
+          <cell r="C866"/>
+        </row>
+        <row r="867">
+          <cell r="A867"/>
+          <cell r="C867"/>
+        </row>
+        <row r="868">
+          <cell r="A868"/>
+          <cell r="C868"/>
+        </row>
+        <row r="869">
+          <cell r="A869"/>
+          <cell r="C869"/>
+        </row>
+        <row r="870">
+          <cell r="A870"/>
+          <cell r="C870"/>
+        </row>
+        <row r="871">
+          <cell r="A871"/>
+          <cell r="C871"/>
+        </row>
+        <row r="872">
+          <cell r="A872"/>
+          <cell r="C872"/>
+        </row>
+        <row r="873">
+          <cell r="A873"/>
+          <cell r="C873"/>
+        </row>
+        <row r="874">
+          <cell r="A874"/>
+          <cell r="C874"/>
+        </row>
+        <row r="875">
+          <cell r="A875"/>
+          <cell r="C875"/>
+        </row>
+        <row r="876">
+          <cell r="A876"/>
+          <cell r="C876"/>
+        </row>
+        <row r="877">
+          <cell r="A877"/>
+          <cell r="C877"/>
+        </row>
+        <row r="878">
+          <cell r="A878"/>
+          <cell r="C878"/>
+        </row>
+        <row r="879">
+          <cell r="A879"/>
+          <cell r="C879"/>
+        </row>
+        <row r="880">
+          <cell r="A880"/>
+          <cell r="C880"/>
+        </row>
+        <row r="881">
+          <cell r="A881"/>
+          <cell r="C881"/>
+        </row>
+        <row r="882">
+          <cell r="A882"/>
+          <cell r="C882"/>
+        </row>
+        <row r="883">
+          <cell r="A883"/>
+          <cell r="C883"/>
+        </row>
+        <row r="884">
+          <cell r="A884"/>
+          <cell r="C884"/>
+        </row>
+        <row r="885">
+          <cell r="A885"/>
+          <cell r="C885"/>
+        </row>
+        <row r="886">
+          <cell r="A886"/>
+          <cell r="C886"/>
+        </row>
+        <row r="887">
+          <cell r="A887"/>
+          <cell r="C887"/>
+        </row>
+        <row r="888">
+          <cell r="A888"/>
+          <cell r="C888"/>
+        </row>
+        <row r="889">
+          <cell r="A889"/>
+          <cell r="C889"/>
+        </row>
+        <row r="890">
+          <cell r="A890"/>
+          <cell r="C890"/>
+        </row>
+        <row r="891">
+          <cell r="A891"/>
+          <cell r="C891"/>
+        </row>
+        <row r="892">
+          <cell r="A892"/>
+          <cell r="C892"/>
+        </row>
+        <row r="893">
+          <cell r="A893"/>
+          <cell r="C893"/>
+        </row>
+        <row r="894">
+          <cell r="A894"/>
+          <cell r="C894"/>
+        </row>
+        <row r="895">
+          <cell r="A895"/>
+          <cell r="C895"/>
+        </row>
+        <row r="896">
+          <cell r="A896"/>
+          <cell r="C896"/>
+        </row>
+        <row r="897">
+          <cell r="A897"/>
+          <cell r="C897"/>
+        </row>
+        <row r="898">
+          <cell r="A898"/>
+          <cell r="C898"/>
+        </row>
+        <row r="899">
+          <cell r="A899"/>
+          <cell r="C899"/>
+        </row>
+        <row r="900">
+          <cell r="A900"/>
+          <cell r="C900"/>
+        </row>
+        <row r="901">
+          <cell r="A901"/>
+          <cell r="C901"/>
+        </row>
+        <row r="902">
+          <cell r="A902"/>
+          <cell r="C902"/>
+        </row>
+        <row r="903">
+          <cell r="A903"/>
+          <cell r="C903"/>
+        </row>
+        <row r="904">
+          <cell r="A904"/>
+          <cell r="C904"/>
+        </row>
+        <row r="905">
+          <cell r="A905"/>
+          <cell r="C905"/>
+        </row>
+        <row r="906">
+          <cell r="A906"/>
+          <cell r="C906"/>
+        </row>
+        <row r="907">
+          <cell r="A907"/>
+          <cell r="C907"/>
+        </row>
+        <row r="908">
+          <cell r="A908"/>
+          <cell r="C908"/>
+        </row>
+        <row r="909">
+          <cell r="A909"/>
+          <cell r="C909"/>
+        </row>
+        <row r="910">
+          <cell r="A910"/>
+          <cell r="C910"/>
+        </row>
+        <row r="911">
+          <cell r="A911"/>
+          <cell r="C911"/>
+        </row>
+        <row r="912">
+          <cell r="A912"/>
+          <cell r="C912"/>
+        </row>
+        <row r="913">
+          <cell r="A913"/>
+          <cell r="C913"/>
+        </row>
+        <row r="914">
+          <cell r="A914"/>
+          <cell r="C914"/>
+        </row>
+        <row r="915">
+          <cell r="A915"/>
+          <cell r="C915"/>
+        </row>
+        <row r="916">
+          <cell r="A916"/>
+          <cell r="C916"/>
+        </row>
+        <row r="917">
+          <cell r="A917"/>
+          <cell r="C917"/>
+        </row>
+        <row r="918">
+          <cell r="A918"/>
+          <cell r="C918"/>
+        </row>
+        <row r="919">
+          <cell r="A919"/>
+          <cell r="C919"/>
+        </row>
+        <row r="920">
+          <cell r="A920"/>
+          <cell r="C920"/>
+        </row>
+        <row r="921">
+          <cell r="A921"/>
+          <cell r="C921"/>
+        </row>
+        <row r="922">
+          <cell r="A922"/>
+          <cell r="C922"/>
+        </row>
+        <row r="923">
+          <cell r="A923"/>
+          <cell r="C923"/>
+        </row>
+        <row r="924">
+          <cell r="A924"/>
+          <cell r="C924"/>
+        </row>
+        <row r="925">
+          <cell r="A925"/>
+          <cell r="C925"/>
+        </row>
+        <row r="926">
+          <cell r="A926"/>
+          <cell r="C926"/>
+        </row>
+        <row r="927">
+          <cell r="A927"/>
+          <cell r="C927"/>
+        </row>
+        <row r="928">
+          <cell r="A928"/>
+          <cell r="C928"/>
+        </row>
+        <row r="929">
+          <cell r="A929"/>
+          <cell r="C929"/>
+        </row>
+        <row r="930">
+          <cell r="A930"/>
+          <cell r="C930"/>
+        </row>
+        <row r="931">
+          <cell r="A931"/>
+          <cell r="C931"/>
+        </row>
+        <row r="932">
+          <cell r="A932"/>
+          <cell r="C932"/>
+        </row>
+        <row r="933">
+          <cell r="A933"/>
+          <cell r="C933"/>
+        </row>
+        <row r="934">
+          <cell r="A934"/>
+          <cell r="C934"/>
+        </row>
+        <row r="935">
+          <cell r="A935"/>
+          <cell r="C935"/>
+        </row>
+        <row r="936">
+          <cell r="A936"/>
+          <cell r="C936"/>
+        </row>
+        <row r="937">
+          <cell r="A937"/>
+          <cell r="C937"/>
+        </row>
+        <row r="938">
+          <cell r="A938"/>
+          <cell r="C938"/>
+        </row>
+        <row r="939">
+          <cell r="A939"/>
+          <cell r="C939"/>
+        </row>
+        <row r="940">
+          <cell r="A940"/>
+          <cell r="C940"/>
+        </row>
+        <row r="941">
+          <cell r="A941"/>
+          <cell r="C941"/>
+        </row>
+        <row r="942">
+          <cell r="A942"/>
+          <cell r="C942"/>
+        </row>
+        <row r="943">
+          <cell r="A943"/>
+          <cell r="C943"/>
+        </row>
+        <row r="944">
+          <cell r="A944"/>
+          <cell r="C944"/>
+        </row>
+        <row r="945">
+          <cell r="A945"/>
+          <cell r="C945"/>
+        </row>
+        <row r="946">
+          <cell r="A946"/>
+          <cell r="C946"/>
+        </row>
+        <row r="947">
+          <cell r="A947"/>
+          <cell r="C947"/>
+        </row>
+        <row r="948">
+          <cell r="A948"/>
+          <cell r="C948"/>
+        </row>
+        <row r="949">
+          <cell r="A949"/>
+          <cell r="C949"/>
+        </row>
+        <row r="950">
+          <cell r="A950"/>
+          <cell r="C950"/>
+        </row>
+        <row r="951">
+          <cell r="A951"/>
+          <cell r="C951"/>
+        </row>
+        <row r="952">
+          <cell r="A952"/>
+          <cell r="C952"/>
+        </row>
+        <row r="953">
+          <cell r="A953"/>
+          <cell r="C953"/>
+        </row>
+        <row r="954">
+          <cell r="A954"/>
+          <cell r="C954"/>
+        </row>
+        <row r="955">
+          <cell r="A955"/>
+          <cell r="C955"/>
+        </row>
+        <row r="956">
+          <cell r="A956"/>
+          <cell r="C956"/>
+        </row>
+        <row r="957">
+          <cell r="A957"/>
+          <cell r="C957"/>
+        </row>
+        <row r="958">
+          <cell r="A958"/>
+          <cell r="C958"/>
+        </row>
+        <row r="959">
+          <cell r="A959"/>
+          <cell r="C959"/>
+        </row>
+        <row r="960">
+          <cell r="A960"/>
+          <cell r="C960"/>
+        </row>
+        <row r="961">
+          <cell r="A961"/>
+          <cell r="C961"/>
+        </row>
+        <row r="962">
+          <cell r="A962"/>
+          <cell r="C962"/>
+        </row>
       </sheetData>
       <sheetData sheetId="2"/>
     </sheetDataSet>
@@ -4428,36 +7039,38 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E290FB92-B6B0-4217-AD5B-002CC5099F66}" name="Table3" displayName="Table3" ref="A1:F23" totalsRowShown="0" headerRowDxfId="56">
-  <autoFilter ref="A1:F23" xr:uid="{DB5B0FB7-EA06-421A-8923-B5FEF1D27518}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F23">
-    <sortCondition ref="F1:F23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E290FB92-B6B0-4217-AD5B-002CC5099F66}" name="Table3" displayName="Table3" ref="A1:G23" totalsRowShown="0" headerRowDxfId="19">
+  <autoFilter ref="A1:G23" xr:uid="{DB5B0FB7-EA06-421A-8923-B5FEF1D27518}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G23">
+    <sortCondition ref="B1:B23"/>
   </sortState>
-  <tableColumns count="6">
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{FCD953BB-C38F-4DD6-92D0-20B44C0BBA00}" name="Task Name"/>
     <tableColumn id="2" xr3:uid="{19700C44-4FA3-4B01-A50D-19A1731A6B43}" name="Task ID"/>
     <tableColumn id="3" xr3:uid="{3BDB3783-DFA4-49AE-BB96-A487857CEC10}" name="Due Day"/>
-    <tableColumn id="4" xr3:uid="{AD3F3E97-3A2F-48E3-8964-D6A227212B73}" name="Due Time" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{AD3F3E97-3A2F-48E3-8964-D6A227212B73}" name="Due Time" dataDxfId="18"/>
     <tableColumn id="5" xr3:uid="{F355480F-F97C-4779-AF61-ABA3477FE671}" name="Worth"/>
     <tableColumn id="6" xr3:uid="{7FC7EF78-AB5E-401A-A3D6-C3FE1B7C504A}" name="Difficulty"/>
+    <tableColumn id="7" xr3:uid="{F30224C7-9A89-490E-987A-65389519A1A3}" name="Link"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D50814A-7BED-4021-B56D-88C3AA8E9A87}" name="Table1" displayName="Table1" ref="A1:F105" totalsRowShown="0">
-  <autoFilter ref="A1:F105" xr:uid="{359A3434-A797-48BE-96A5-D436FC2525E3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D50814A-7BED-4021-B56D-88C3AA8E9A87}" name="Table1" displayName="Table1" ref="A1:G105" totalsRowShown="0">
+  <autoFilter ref="A1:G105" xr:uid="{359A3434-A797-48BE-96A5-D436FC2525E3}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F105">
     <sortCondition ref="B1:B105"/>
   </sortState>
-  <tableColumns count="6">
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{C275052F-3ED6-40FB-BFA8-660DF442DFB2}" name="First Name"/>
     <tableColumn id="2" xr3:uid="{9AEBA514-CA7A-42D0-83D7-3A8A6EEA752B}" name="Last Name"/>
     <tableColumn id="3" xr3:uid="{556ED8BA-75BD-424C-9657-B941922A0C94}" name="Phone"/>
     <tableColumn id="4" xr3:uid="{709A5624-4BA2-4B30-BD95-D67B1A2C0C53}" name="E-mail Address"/>
-    <tableColumn id="5" xr3:uid="{0E39E5A4-92B2-4746-8B23-A117F966C8F5}" name="Status" dataDxfId="54"/>
+    <tableColumn id="5" xr3:uid="{0E39E5A4-92B2-4746-8B23-A117F966C8F5}" name="Status" dataDxfId="17"/>
     <tableColumn id="6" xr3:uid="{CF355CC4-EBBB-4A0F-A07F-1DA0B58940EC}" name="Active"/>
+    <tableColumn id="7" xr3:uid="{DCAF4291-CD61-4DD8-907E-26E5C3B4D9DC}" name="Assigned"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4791,10 +7404,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="28.5">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="31"/>
       <c r="C1" s="1"/>
       <c r="F1" s="2"/>
       <c r="I1" s="3"/>
@@ -4843,9 +7456,9 @@
       <c r="A4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A4,[1]Input!$C$3:$C962)</f>
-        <v>9</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>27</v>
@@ -4888,9 +7501,9 @@
       <c r="A5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A5,[1]Input!$C$3:$C962)</f>
-        <v>6</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>27</v>
@@ -4924,11 +7537,11 @@
       </c>
       <c r="O5" s="17">
         <f>COUNTIF(B:B, "&lt;=0")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" s="18">
         <f>O5/COUNTIF(B4:B962, "&lt;&gt;")</f>
-        <v>1.0309278350515464E-2</v>
+        <v>0</v>
       </c>
       <c r="R5" s="19"/>
     </row>
@@ -4936,9 +7549,9 @@
       <c r="A6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A6,[1]Input!$C$3:$C962)</f>
-        <v>5</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>27</v>
@@ -4982,9 +7595,9 @@
       <c r="A7" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A7,[1]Input!$C$3:$C962)</f>
-        <v>5</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>27</v>
@@ -5028,9 +7641,9 @@
       <c r="A8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A8,[1]Input!$C$3:$C962)</f>
-        <v>5</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>27</v>
@@ -5074,9 +7687,9 @@
       <c r="A9" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A9,[1]Input!$C$3:$C962)</f>
-        <v>5</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>27</v>
@@ -5120,9 +7733,9 @@
       <c r="A10" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A10,[1]Input!$C$3:$C962)</f>
-        <v>5</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>112</v>
@@ -5156,20 +7769,20 @@
       </c>
       <c r="O10" s="23">
         <f>COUNTIF(B:B, "&gt;=5")</f>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="P10" s="18">
         <f>O10/COUNTIF(B4:B962, "&lt;&gt;")</f>
-        <v>0.14432989690721648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A11,[1]Input!$C$3:$C962)</f>
-        <v>5</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>27</v>
@@ -5204,9 +7817,9 @@
       <c r="A12" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A12,[1]Input!$C$3:$C962)</f>
-        <v>5</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>117</v>
@@ -5235,19 +7848,19 @@
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2)</f>
         <v>2</v>
       </c>
-      <c r="N12" s="29" t="s">
+      <c r="N12" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A13,[1]Input!$C$3:$C962)</f>
-        <v>5</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>117</v>
@@ -5276,20 +7889,20 @@
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2)</f>
         <v>2</v>
       </c>
-      <c r="N13" s="31" t="str">
+      <c r="N13" s="34" t="e">
         <f>CONCATENATE(ROUND((SUM(B4:B117)/(COUNTIF(B4:B962, "&lt;&gt;")*5)*COUNTIF(B4:B962, "&lt;&gt;")),2),"%")</f>
-        <v>61.3%</v>
-      </c>
-      <c r="O13" s="32"/>
-      <c r="P13" s="33"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O13" s="35"/>
+      <c r="P13" s="36"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A14,[1]Input!$C$3:$C962)</f>
-        <v>5</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>117</v>
@@ -5318,19 +7931,19 @@
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2)</f>
         <v>2</v>
       </c>
-      <c r="N14" s="29" t="s">
+      <c r="N14" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A15,[1]Input!$C$3:$C962)</f>
-        <v>5</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>112</v>
@@ -5359,20 +7972,20 @@
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1)</f>
         <v>1</v>
       </c>
-      <c r="N15" s="35" t="e">
+      <c r="N15" s="38" t="e">
         <f ca="1">(_xludf.DAYS(TODAY(),"1/7/19")/(_xludf.DAYS("5/3/19","1/7/19")))</f>
         <v>#NAME?</v>
       </c>
-      <c r="O15" s="32"/>
-      <c r="P15" s="33"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="36"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A16,[1]Input!$C$3:$C962)</f>
-        <v>5</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>27</v>
@@ -5407,9 +8020,9 @@
       <c r="A17" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A17,[1]Input!$C$3:$C962)</f>
-        <v>5</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>121</v>
@@ -5433,19 +8046,19 @@
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
       <c r="L17" s="3"/>
-      <c r="N17" s="29" t="s">
+      <c r="N17" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A18,[1]Input!$C$3:$C962)</f>
-        <v>4.5</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>27</v>
@@ -5465,20 +8078,20 @@
       <c r="M18" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="N18" s="34" t="str">
+      <c r="N18" s="37" t="str">
         <f t="array" aca="1" ref="N18" ca="1">INDEX(A16:A100,RANDBETWEEN(1,COUNTA(A16:A100)))</f>
-        <v>Ethan Smith</v>
-      </c>
-      <c r="O18" s="32"/>
-      <c r="P18" s="33"/>
+        <v>Harrison Morris</v>
+      </c>
+      <c r="O18" s="35"/>
+      <c r="P18" s="36"/>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A19,[1]Input!$C$3:$C962)</f>
-        <v>4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>121</v>
@@ -5491,9 +8104,9 @@
       <c r="A20" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A20,[1]Input!$C$3:$C962)</f>
-        <v>4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>27</v>
@@ -5506,9 +8119,9 @@
       <c r="A21" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A21,[1]Input!$C$3:$C962)</f>
-        <v>4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>27</v>
@@ -5521,9 +8134,9 @@
       <c r="A22" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A22,[1]Input!$C$3:$C962)</f>
-        <v>4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>27</v>
@@ -5535,9 +8148,9 @@
       <c r="A23" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A23,[1]Input!$C$3:$C962)</f>
-        <v>4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>121</v>
@@ -5549,9 +8162,9 @@
       <c r="A24" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A24,[1]Input!$C$3:$C962)</f>
-        <v>4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>27</v>
@@ -5563,9 +8176,9 @@
       <c r="A25" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A25,[1]Input!$C$3:$C962)</f>
-        <v>4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>121</v>
@@ -5577,9 +8190,9 @@
       <c r="A26" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A26,[1]Input!$C$3:$C962)</f>
-        <v>4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>121</v>
@@ -5591,9 +8204,9 @@
       <c r="A27" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A27,[1]Input!$C$3:$C962)</f>
-        <v>4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>121</v>
@@ -5605,9 +8218,9 @@
       <c r="A28" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A28,[1]Input!$C$3:$C962)</f>
-        <v>4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>121</v>
@@ -5619,9 +8232,9 @@
       <c r="A29" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="13">
+      <c r="B29" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A29,[1]Input!$C$3:$C962)</f>
-        <v>4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>121</v>
@@ -5633,9 +8246,9 @@
       <c r="A30" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B30" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A30,[1]Input!$C$3:$C962)</f>
-        <v>4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>121</v>
@@ -5647,9 +8260,9 @@
       <c r="A31" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A31,[1]Input!$C$3:$C962)</f>
-        <v>4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>117</v>
@@ -5661,9 +8274,9 @@
       <c r="A32" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="13">
+      <c r="B32" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A32,[1]Input!$C$3:$C962)</f>
-        <v>4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>27</v>
@@ -5675,9 +8288,9 @@
       <c r="A33" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B33" s="13">
+      <c r="B33" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A33,[1]Input!$C$3:$C962)</f>
-        <v>4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>117</v>
@@ -5689,9 +8302,9 @@
       <c r="A34" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="13">
+      <c r="B34" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A34,[1]Input!$C$3:$C962)</f>
-        <v>4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C34" s="21" t="s">
         <v>112</v>
@@ -5703,9 +8316,9 @@
       <c r="A35" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B35" s="13">
+      <c r="B35" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A35,[1]Input!$C$3:$C962)</f>
-        <v>4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>27</v>
@@ -5717,9 +8330,9 @@
       <c r="A36" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B36" s="13">
+      <c r="B36" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A36,[1]Input!$C$3:$C962)</f>
-        <v>4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>27</v>
@@ -5731,9 +8344,9 @@
       <c r="A37" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="B37" s="13">
+      <c r="B37" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A37,[1]Input!$C$3:$C962)</f>
-        <v>4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>121</v>
@@ -5745,9 +8358,9 @@
       <c r="A38" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B38" s="13">
+      <c r="B38" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A38,[1]Input!$C$3:$C962)</f>
-        <v>4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>117</v>
@@ -5759,9 +8372,9 @@
       <c r="A39" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="13">
+      <c r="B39" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A39,[1]Input!$C$3:$C962)</f>
-        <v>4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>27</v>
@@ -5773,9 +8386,9 @@
       <c r="A40" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="13">
+      <c r="B40" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A40,[1]Input!$C$3:$C962)</f>
-        <v>4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>27</v>
@@ -5787,9 +8400,9 @@
       <c r="A41" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="13">
+      <c r="B41" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A41,[1]Input!$C$3:$C962)</f>
-        <v>4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>117</v>
@@ -5801,9 +8414,9 @@
       <c r="A42" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B42" s="13">
+      <c r="B42" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A42,[1]Input!$C$3:$C962)</f>
-        <v>3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>27</v>
@@ -5815,9 +8428,9 @@
       <c r="A43" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="13">
+      <c r="B43" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A43,[1]Input!$C$3:$C962)</f>
-        <v>3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>27</v>
@@ -5829,9 +8442,9 @@
       <c r="A44" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="13">
+      <c r="B44" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A44,[1]Input!$C$3:$C962)</f>
-        <v>3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>27</v>
@@ -5843,9 +8456,9 @@
       <c r="A45" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B45" s="13">
+      <c r="B45" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A45,[1]Input!$C$3:$C962)</f>
-        <v>3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>27</v>
@@ -5857,9 +8470,9 @@
       <c r="A46" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B46" s="13">
+      <c r="B46" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A46,[1]Input!$C$3:$C962)</f>
-        <v>3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>27</v>
@@ -5871,9 +8484,9 @@
       <c r="A47" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B47" s="13">
+      <c r="B47" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A47,[1]Input!$C$3:$C962)</f>
-        <v>3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>121</v>
@@ -5885,9 +8498,9 @@
       <c r="A48" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B48" s="13">
+      <c r="B48" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A48,[1]Input!$C$3:$C962)</f>
-        <v>3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>117</v>
@@ -5899,9 +8512,9 @@
       <c r="A49" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B49" s="13">
+      <c r="B49" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A49,[1]Input!$C$3:$C962)</f>
-        <v>3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>27</v>
@@ -5913,9 +8526,9 @@
       <c r="A50" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B50" s="13">
+      <c r="B50" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A50,[1]Input!$C$3:$C962)</f>
-        <v>3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>27</v>
@@ -5927,9 +8540,9 @@
       <c r="A51" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B51" s="13">
+      <c r="B51" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A51,[1]Input!$C$3:$C962)</f>
-        <v>3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>117</v>
@@ -5941,9 +8554,9 @@
       <c r="A52" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B52" s="13">
+      <c r="B52" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A52,[1]Input!$C$3:$C962)</f>
-        <v>3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>117</v>
@@ -5955,9 +8568,9 @@
       <c r="A53" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B53" s="13">
+      <c r="B53" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A53,[1]Input!$C$3:$C962)</f>
-        <v>3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>27</v>
@@ -5969,9 +8582,9 @@
       <c r="A54" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B54" s="13">
+      <c r="B54" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A54,[1]Input!$C$3:$C962)</f>
-        <v>3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>27</v>
@@ -5983,9 +8596,9 @@
       <c r="A55" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B55" s="13">
+      <c r="B55" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A55,[1]Input!$C$3:$C962)</f>
-        <v>3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>27</v>
@@ -5997,9 +8610,9 @@
       <c r="A56" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B56" s="13">
+      <c r="B56" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A56,[1]Input!$C$3:$C962)</f>
-        <v>3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C56" s="21" t="s">
         <v>112</v>
@@ -6011,9 +8624,9 @@
       <c r="A57" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B57" s="13">
+      <c r="B57" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A57,[1]Input!$C$3:$C962)</f>
-        <v>3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>27</v>
@@ -6025,9 +8638,9 @@
       <c r="A58" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B58" s="13">
+      <c r="B58" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A58,[1]Input!$C$3:$C962)</f>
-        <v>3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>27</v>
@@ -6039,9 +8652,9 @@
       <c r="A59" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="B59" s="13">
+      <c r="B59" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A59,[1]Input!$C$3:$C962)</f>
-        <v>3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C59" s="21" t="s">
         <v>112</v>
@@ -6053,9 +8666,9 @@
       <c r="A60" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="B60" s="13">
+      <c r="B60" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A60,[1]Input!$C$3:$C962)</f>
-        <v>3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>27</v>
@@ -6067,9 +8680,9 @@
       <c r="A61" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B61" s="13">
+      <c r="B61" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A61,[1]Input!$C$3:$C962)</f>
-        <v>3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C61" s="21" t="s">
         <v>112</v>
@@ -6081,9 +8694,9 @@
       <c r="A62" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B62" s="13">
+      <c r="B62" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A62,[1]Input!$C$3:$C962)</f>
-        <v>3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>121</v>
@@ -6095,9 +8708,9 @@
       <c r="A63" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B63" s="13">
+      <c r="B63" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A63,[1]Input!$C$3:$C962)</f>
-        <v>3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>117</v>
@@ -6109,9 +8722,9 @@
       <c r="A64" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B64" s="13">
+      <c r="B64" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A64,[1]Input!$C$3:$C962)</f>
-        <v>3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>117</v>
@@ -6123,9 +8736,9 @@
       <c r="A65" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B65" s="13">
+      <c r="B65" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A65,[1]Input!$C$3:$C962)</f>
-        <v>3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>117</v>
@@ -6137,9 +8750,9 @@
       <c r="A66" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B66" s="13">
+      <c r="B66" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A66,[1]Input!$C$3:$C962)</f>
-        <v>3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>121</v>
@@ -6151,9 +8764,9 @@
       <c r="A67" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B67" s="13">
+      <c r="B67" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A67,[1]Input!$C$3:$C962)</f>
-        <v>2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>27</v>
@@ -6165,9 +8778,9 @@
       <c r="A68" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B68" s="13">
+      <c r="B68" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A68,[1]Input!$C$3:$C962)</f>
-        <v>2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>27</v>
@@ -6179,9 +8792,9 @@
       <c r="A69" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B69" s="13">
+      <c r="B69" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A69,[1]Input!$C$3:$C962)</f>
-        <v>2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C69" s="21" t="s">
         <v>112</v>
@@ -6193,9 +8806,9 @@
       <c r="A70" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B70" s="13">
+      <c r="B70" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A70,[1]Input!$C$3:$C962)</f>
-        <v>2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C70" s="21" t="s">
         <v>112</v>
@@ -6207,9 +8820,9 @@
       <c r="A71" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B71" s="13">
+      <c r="B71" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A71,[1]Input!$C$3:$C962)</f>
-        <v>2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C71" s="21" t="s">
         <v>112</v>
@@ -6221,9 +8834,9 @@
       <c r="A72" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B72" s="13">
+      <c r="B72" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A72,[1]Input!$C$3:$C962)</f>
-        <v>2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>27</v>
@@ -6235,9 +8848,9 @@
       <c r="A73" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B73" s="13">
+      <c r="B73" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A73,[1]Input!$C$3:$C962)</f>
-        <v>2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>27</v>
@@ -6249,9 +8862,9 @@
       <c r="A74" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B74" s="13">
+      <c r="B74" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A74,[1]Input!$C$3:$C962)</f>
-        <v>2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>27</v>
@@ -6263,9 +8876,9 @@
       <c r="A75" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B75" s="13">
+      <c r="B75" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A75,[1]Input!$C$3:$C962)</f>
-        <v>2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>121</v>
@@ -6277,9 +8890,9 @@
       <c r="A76" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B76" s="13">
+      <c r="B76" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A76,[1]Input!$C$3:$C962)</f>
-        <v>2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>121</v>
@@ -6291,9 +8904,9 @@
       <c r="A77" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B77" s="13">
+      <c r="B77" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A77,[1]Input!$C$3:$C962)</f>
-        <v>2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>27</v>
@@ -6305,9 +8918,9 @@
       <c r="A78" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B78" s="13">
+      <c r="B78" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A78,[1]Input!$C$3:$C962)</f>
-        <v>2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>27</v>
@@ -6319,9 +8932,9 @@
       <c r="A79" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B79" s="13">
+      <c r="B79" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A79,[1]Input!$C$3:$C962)</f>
-        <v>2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>27</v>
@@ -6333,9 +8946,9 @@
       <c r="A80" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B80" s="13">
+      <c r="B80" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A80,[1]Input!$C$3:$C962)</f>
-        <v>2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C80" s="21" t="s">
         <v>112</v>
@@ -6347,9 +8960,9 @@
       <c r="A81" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B81" s="13">
+      <c r="B81" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A81,[1]Input!$C$3:$C962)</f>
-        <v>2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>27</v>
@@ -6361,9 +8974,9 @@
       <c r="A82" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B82" s="13">
+      <c r="B82" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A82,[1]Input!$C$3:$C962)</f>
-        <v>2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>27</v>
@@ -6375,9 +8988,9 @@
       <c r="A83" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B83" s="13">
+      <c r="B83" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A83,[1]Input!$C$3:$C962)</f>
-        <v>2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>27</v>
@@ -6389,9 +9002,9 @@
       <c r="A84" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B84" s="13">
+      <c r="B84" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A84,[1]Input!$C$3:$C962)</f>
-        <v>2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>27</v>
@@ -6403,9 +9016,9 @@
       <c r="A85" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B85" s="13">
+      <c r="B85" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A85,[1]Input!$C$3:$C962)</f>
-        <v>2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>27</v>
@@ -6417,9 +9030,9 @@
       <c r="A86" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B86" s="13">
+      <c r="B86" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A86,[1]Input!$C$3:$C962)</f>
-        <v>2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C86" s="21" t="s">
         <v>112</v>
@@ -6431,9 +9044,9 @@
       <c r="A87" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B87" s="13">
+      <c r="B87" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A87,[1]Input!$C$3:$C962)</f>
-        <v>2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>27</v>
@@ -6445,9 +9058,9 @@
       <c r="A88" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B88" s="13">
+      <c r="B88" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A88,[1]Input!$C$3:$C962)</f>
-        <v>2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>27</v>
@@ -6459,9 +9072,9 @@
       <c r="A89" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B89" s="13">
+      <c r="B89" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A89,[1]Input!$C$3:$C962)</f>
-        <v>2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>27</v>
@@ -6473,9 +9086,9 @@
       <c r="A90" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B90" s="13">
+      <c r="B90" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A90,[1]Input!$C$3:$C962)</f>
-        <v>2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>27</v>
@@ -6487,9 +9100,9 @@
       <c r="A91" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B91" s="13">
+      <c r="B91" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A91,[1]Input!$C$3:$C962)</f>
-        <v>2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>27</v>
@@ -6501,9 +9114,9 @@
       <c r="A92" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B92" s="13">
+      <c r="B92" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A92,[1]Input!$C$3:$C962)</f>
-        <v>2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>27</v>
@@ -6515,9 +9128,9 @@
       <c r="A93" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B93" s="13">
+      <c r="B93" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A93,[1]Input!$C$3:$C962)</f>
-        <v>2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>117</v>
@@ -6529,9 +9142,9 @@
       <c r="A94" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B94" s="13">
+      <c r="B94" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A94,[1]Input!$C$3:$C962)</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C94" s="21" t="s">
         <v>112</v>
@@ -6543,9 +9156,9 @@
       <c r="A95" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B95" s="13">
+      <c r="B95" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A95,[1]Input!$C$3:$C962)</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C95" s="21" t="s">
         <v>112</v>
@@ -6557,9 +9170,9 @@
       <c r="A96" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B96" s="13">
+      <c r="B96" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A96,[1]Input!$C$3:$C962)</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>27</v>
@@ -6571,9 +9184,9 @@
       <c r="A97" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B97" s="13">
+      <c r="B97" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A97,[1]Input!$C$3:$C962)</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>27</v>
@@ -6585,9 +9198,9 @@
       <c r="A98" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B98" s="13">
+      <c r="B98" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A98,[1]Input!$C$3:$C962)</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C98" s="3"/>
       <c r="F98" s="2"/>
@@ -6597,9 +9210,9 @@
       <c r="A99" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B99" s="13">
+      <c r="B99" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A99,[1]Input!$C$3:$C962)</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>27</v>
@@ -6611,9 +9224,9 @@
       <c r="A100" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B100" s="13">
+      <c r="B100" s="13" t="e">
         <f>SUMIF([1]Input!$A$3:$A962,A100,[1]Input!$C$3:$C962)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>27</v>
@@ -11796,17 +14409,17 @@
   </sheetData>
   <autoFilter ref="A3:C100" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <customSheetViews>
-    <customSheetView guid="{94585C9F-1B85-465E-91D5-6A956AC4E77F}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{360E8DCA-6649-4E70-8165-2C0F506B3505}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:B100" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
+      <autoFilter ref="A1:C100" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
     <customSheetView guid="{F8EB5DD3-AD88-4677-B832-36C03EB988C5}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <autoFilter ref="I11" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{360E8DCA-6649-4E70-8165-2C0F506B3505}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{94585C9F-1B85-465E-91D5-6A956AC4E77F}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:C100" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
+      <autoFilter ref="A1:B100" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="7">
@@ -11919,8 +14532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9660DE21-334C-4558-97BA-16BEFAE4E2B1}">
   <dimension ref="A1:C98"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -13000,10 +15613,10 @@
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="36" t="s">
+      <c r="A98" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="B98" s="36" t="s">
+      <c r="B98" s="28" t="s">
         <v>372</v>
       </c>
       <c r="C98">
@@ -13020,10 +15633,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49DC2E8B-7714-4495-AC94-7289634714B8}">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G1:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="12.75"/>
@@ -13034,9 +15647,10 @@
     <col min="4" max="4" width="11.85546875" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="69.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="25" t="s">
         <v>124</v>
       </c>
@@ -13055,8 +15669,11 @@
       <c r="F1" s="25" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="G1" s="25" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
         <v>129</v>
       </c>
@@ -13075,8 +15692,11 @@
       <c r="F2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="G2" s="27" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
         <v>129</v>
       </c>
@@ -13095,8 +15715,11 @@
       <c r="F3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="G3" s="27" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -13115,7 +15738,9 @@
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4" s="24"/>
+      <c r="G4" s="27" t="s">
+        <v>549</v>
+      </c>
       <c r="H4" s="24"/>
       <c r="I4" s="24"/>
       <c r="J4" s="24"/>
@@ -13132,128 +15757,147 @@
       <c r="U4" s="24"/>
       <c r="V4" s="24"/>
       <c r="W4" s="24"/>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="X4" s="24"/>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D5" s="24">
-        <v>0.70833333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
+        <v>2</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D6" s="24">
-        <v>0.70833333333333337</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23">
+        <v>4</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B7">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D7" s="24">
-        <v>0.70833333333333337</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23">
+        <v>4</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B8">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>56</v>
       </c>
       <c r="D8" s="24">
-        <v>0.70833333333333337</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
+        <v>4</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B9">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>56</v>
       </c>
       <c r="D9" s="24">
-        <v>0.95833333333333337</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23">
+        <v>4</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="D10" s="24">
-        <v>0.79166666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
+        <v>3</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
         <v>135</v>
       </c>
@@ -13272,8 +15916,11 @@
       <c r="F11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="G11" s="27" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
         <v>131</v>
       </c>
@@ -13292,13 +15939,16 @@
       <c r="F12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="G12" s="27" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B13">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>56</v>
@@ -13310,15 +15960,18 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
+        <v>1</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B14">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>56</v>
@@ -13330,15 +15983,18 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
+        <v>1</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B15">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
         <v>56</v>
@@ -13350,15 +16006,18 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
+        <v>1</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
         <v>56</v>
@@ -13370,15 +16029,18 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
         <v>56</v>
@@ -13392,19 +16054,22 @@
       <c r="F17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="27" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B18">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
         <v>56</v>
       </c>
       <c r="D18" s="24">
-        <v>0.99930555555555556</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -13412,13 +16077,16 @@
       <c r="F18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="27" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B19">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
         <v>56</v>
@@ -13430,75 +16098,87 @@
         <v>1</v>
       </c>
       <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="24">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>132</v>
-      </c>
-      <c r="B20">
-        <v>5</v>
-      </c>
-      <c r="C20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="24">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" s="27" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B21">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D21" s="24">
-        <v>0.41666666666666669</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="B22">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
         <v>56</v>
       </c>
       <c r="D22" s="24">
-        <v>0.41666666666666669</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B23">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
         <v>56</v>
@@ -13510,24 +16190,32 @@
         <v>1</v>
       </c>
       <c r="F23">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>548</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G21" r:id="rId1" xr:uid="{215797D9-99DB-4B76-A537-47E6D3A8B7B0}"/>
+    <hyperlink ref="G10" r:id="rId2" xr:uid="{4B74758E-9710-40F7-9945-ABDC7212F40C}"/>
+    <hyperlink ref="G19" r:id="rId3" xr:uid="{6A9092B8-9595-4A0E-8B63-6CFE5B2684A2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F23B35-1859-4074-87EA-5D4728FE9692}">
-  <dimension ref="A1:F105"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -13537,9 +16225,10 @@
     <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="26" t="s">
         <v>148</v>
       </c>
@@ -13558,8 +16247,11 @@
       <c r="F1" s="26" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="28" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>211</v>
       </c>
@@ -13578,8 +16270,9 @@
       <c r="F2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="27"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>215</v>
       </c>
@@ -13592,14 +16285,15 @@
       <c r="D3" t="s">
         <v>218</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="28" t="s">
         <v>27</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="27"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>219</v>
       </c>
@@ -13618,8 +16312,9 @@
       <c r="F4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="27"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>223</v>
       </c>
@@ -13638,8 +16333,9 @@
       <c r="F5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="27"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>227</v>
       </c>
@@ -13658,8 +16354,9 @@
       <c r="F6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="27"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>219</v>
       </c>
@@ -13678,8 +16375,9 @@
       <c r="F7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="27"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>234</v>
       </c>
@@ -13698,8 +16396,9 @@
       <c r="F8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="27"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>211</v>
       </c>
@@ -13718,8 +16417,9 @@
       <c r="F9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="27"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>241</v>
       </c>
@@ -13738,8 +16438,9 @@
       <c r="F10" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="27"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>151</v>
       </c>
@@ -13758,8 +16459,9 @@
       <c r="F11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="27"/>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>245</v>
       </c>
@@ -13778,8 +16480,9 @@
       <c r="F12" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="27"/>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>249</v>
       </c>
@@ -13798,8 +16501,9 @@
       <c r="F13" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="27"/>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>253</v>
       </c>
@@ -13818,8 +16522,9 @@
       <c r="F14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="27"/>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>257</v>
       </c>
@@ -13838,8 +16543,9 @@
       <c r="F15" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="27"/>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>261</v>
       </c>
@@ -13858,8 +16564,9 @@
       <c r="F16" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="27"/>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>265</v>
       </c>
@@ -13878,8 +16585,9 @@
       <c r="F17" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="27"/>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>269</v>
       </c>
@@ -13898,8 +16606,9 @@
       <c r="F18" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="27"/>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>273</v>
       </c>
@@ -13918,8 +16627,9 @@
       <c r="F19" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="27"/>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>277</v>
       </c>
@@ -13938,8 +16648,9 @@
       <c r="F20" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" s="27"/>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>155</v>
       </c>
@@ -13958,8 +16669,9 @@
       <c r="F21" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" s="27"/>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>281</v>
       </c>
@@ -13978,8 +16690,9 @@
       <c r="F22" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" s="27"/>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>285</v>
       </c>
@@ -13998,8 +16711,9 @@
       <c r="F23" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" s="27"/>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>289</v>
       </c>
@@ -14018,8 +16732,9 @@
       <c r="F24" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" s="27"/>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>159</v>
       </c>
@@ -14038,8 +16753,9 @@
       <c r="F25" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" s="27"/>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>293</v>
       </c>
@@ -14058,8 +16774,9 @@
       <c r="F26" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" s="27"/>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>297</v>
       </c>
@@ -14075,8 +16792,9 @@
       <c r="F27" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" s="27"/>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>300</v>
       </c>
@@ -14095,8 +16813,9 @@
       <c r="F28" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28" s="27"/>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>300</v>
       </c>
@@ -14115,8 +16834,9 @@
       <c r="F29" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" s="27"/>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>307</v>
       </c>
@@ -14135,8 +16855,9 @@
       <c r="F30" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30" s="27"/>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>311</v>
       </c>
@@ -14155,8 +16876,9 @@
       <c r="F31" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31" s="27"/>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>315</v>
       </c>
@@ -14175,8 +16897,9 @@
       <c r="F32" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32" s="27"/>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>163</v>
       </c>
@@ -14195,8 +16918,9 @@
       <c r="F33" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33" s="27"/>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>163</v>
       </c>
@@ -14215,8 +16939,9 @@
       <c r="F34" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34" s="27"/>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>300</v>
       </c>
@@ -14235,8 +16960,9 @@
       <c r="F35" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35" s="27"/>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>325</v>
       </c>
@@ -14255,8 +16981,9 @@
       <c r="F36" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36" s="27"/>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>329</v>
       </c>
@@ -14275,8 +17002,9 @@
       <c r="F37" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37" s="27"/>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>333</v>
       </c>
@@ -14292,8 +17020,9 @@
       <c r="F38" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38" s="27"/>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>167</v>
       </c>
@@ -14312,8 +17041,9 @@
       <c r="F39" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39" s="27"/>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>234</v>
       </c>
@@ -14332,8 +17062,9 @@
       <c r="F40" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40" s="27"/>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>241</v>
       </c>
@@ -14352,8 +17083,9 @@
       <c r="F41" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41" s="27"/>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>342</v>
       </c>
@@ -14372,8 +17104,9 @@
       <c r="F42" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42" s="27"/>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>346</v>
       </c>
@@ -14392,8 +17125,9 @@
       <c r="F43" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="G43" s="27"/>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>325</v>
       </c>
@@ -14412,8 +17146,9 @@
       <c r="F44" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44" s="27"/>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>353</v>
       </c>
@@ -14432,8 +17167,9 @@
       <c r="F45" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45" s="27"/>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>357</v>
       </c>
@@ -14452,8 +17188,9 @@
       <c r="F46" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="G46" s="27"/>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="26" t="s">
         <v>528</v>
       </c>
@@ -14466,8 +17203,9 @@
       <c r="F47" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="G47" s="27"/>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>171</v>
       </c>
@@ -14486,8 +17224,9 @@
       <c r="F48" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="G48" s="27"/>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>175</v>
       </c>
@@ -14506,8 +17245,9 @@
       <c r="F49" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49" s="27"/>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>179</v>
       </c>
@@ -14526,8 +17266,9 @@
       <c r="F50" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="G50" s="27"/>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>361</v>
       </c>
@@ -14546,8 +17287,9 @@
       <c r="F51" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="G51" s="27"/>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>365</v>
       </c>
@@ -14566,8 +17308,9 @@
       <c r="F52" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52" s="27"/>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>325</v>
       </c>
@@ -14586,8 +17329,9 @@
       <c r="F53" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="G53" s="27"/>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>182</v>
       </c>
@@ -14606,12 +17350,13 @@
       <c r="F54" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="36" t="s">
+      <c r="G54" s="27"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="B55" s="36" t="s">
+      <c r="B55" s="28" t="s">
         <v>372</v>
       </c>
       <c r="C55" t="s">
@@ -14626,8 +17371,9 @@
       <c r="F55" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="G55" s="27"/>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>375</v>
       </c>
@@ -14646,8 +17392,9 @@
       <c r="F56" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="G56" s="27"/>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>379</v>
       </c>
@@ -14666,8 +17413,9 @@
       <c r="F57" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57" s="27"/>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>325</v>
       </c>
@@ -14686,8 +17434,9 @@
       <c r="F58" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="G58" s="27"/>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>386</v>
       </c>
@@ -14706,28 +17455,30 @@
       <c r="F59" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="36" t="s">
+      <c r="G59" s="27"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="28" t="s">
         <v>531</v>
       </c>
-      <c r="B60" s="36" t="s">
+      <c r="B60" s="28" t="s">
         <v>391</v>
       </c>
-      <c r="C60" s="36" t="s">
+      <c r="C60" s="28" t="s">
         <v>533</v>
       </c>
-      <c r="D60" s="37" t="s">
+      <c r="D60" s="29" t="s">
         <v>534</v>
       </c>
-      <c r="E60" s="36" t="s">
+      <c r="E60" s="28" t="s">
         <v>27</v>
       </c>
       <c r="F60" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="G60" s="27"/>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>390</v>
       </c>
@@ -14746,8 +17497,9 @@
       <c r="F61" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="G61" s="27"/>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>186</v>
       </c>
@@ -14766,8 +17518,9 @@
       <c r="F62" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62" s="27"/>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>186</v>
       </c>
@@ -14783,8 +17536,9 @@
       <c r="F63" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="G63" s="27"/>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>396</v>
       </c>
@@ -14803,8 +17557,9 @@
       <c r="F64" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="G64" s="27"/>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>300</v>
       </c>
@@ -14823,8 +17578,9 @@
       <c r="F65" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="G65" s="27"/>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
         <v>403</v>
       </c>
@@ -14843,8 +17599,9 @@
       <c r="F66" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="G66" s="27"/>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
         <v>406</v>
       </c>
@@ -14863,8 +17620,9 @@
       <c r="F67" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="G67" s="27"/>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
         <v>189</v>
       </c>
@@ -14883,8 +17641,9 @@
       <c r="F68" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="G68" s="27"/>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>261</v>
       </c>
@@ -14903,8 +17662,9 @@
       <c r="F69" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="G69" s="27"/>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
         <v>413</v>
       </c>
@@ -14923,8 +17683,9 @@
       <c r="F70" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70" s="27"/>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
         <v>417</v>
       </c>
@@ -14943,8 +17704,9 @@
       <c r="F71" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="G71" s="27"/>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
         <v>421</v>
       </c>
@@ -14963,8 +17725,9 @@
       <c r="F72" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="G72" s="27"/>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" t="s">
         <v>193</v>
       </c>
@@ -14983,8 +17746,9 @@
       <c r="F73" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="G73" s="27"/>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
         <v>425</v>
       </c>
@@ -15003,8 +17767,9 @@
       <c r="F74" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="G74" s="27"/>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
         <v>429</v>
       </c>
@@ -15023,8 +17788,9 @@
       <c r="F75" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="G75" s="27"/>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
         <v>433</v>
       </c>
@@ -15043,8 +17809,9 @@
       <c r="F76" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="G76" s="27"/>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
         <v>437</v>
       </c>
@@ -15063,8 +17830,9 @@
       <c r="F77" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="G77" s="27"/>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" t="s">
         <v>186</v>
       </c>
@@ -15083,8 +17851,9 @@
       <c r="F78" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="G78" s="27"/>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" t="s">
         <v>444</v>
       </c>
@@ -15103,8 +17872,9 @@
       <c r="F79" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79" s="27"/>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" t="s">
         <v>197</v>
       </c>
@@ -15120,8 +17890,9 @@
       <c r="F80" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:6">
+      <c r="G80" s="27"/>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
         <v>437</v>
       </c>
@@ -15140,8 +17911,9 @@
       <c r="F81" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:6">
+      <c r="G81" s="27"/>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
         <v>261</v>
       </c>
@@ -15160,12 +17932,13 @@
       <c r="F82" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82" s="27"/>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
         <v>208</v>
       </c>
-      <c r="B83" s="36" t="s">
+      <c r="B83" s="28" t="s">
         <v>532</v>
       </c>
       <c r="C83" t="s">
@@ -15180,8 +17953,9 @@
       <c r="F83" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:6">
+      <c r="G83" s="27"/>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
         <v>454</v>
       </c>
@@ -15200,8 +17974,9 @@
       <c r="F84" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84" s="27"/>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
         <v>200</v>
       </c>
@@ -15220,8 +17995,9 @@
       <c r="F85" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:6">
+      <c r="G85" s="27"/>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
         <v>437</v>
       </c>
@@ -15240,8 +18016,9 @@
       <c r="F86" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="G86" s="27"/>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
         <v>461</v>
       </c>
@@ -15260,8 +18037,9 @@
       <c r="F87" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:6">
+      <c r="G87" s="27"/>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
         <v>204</v>
       </c>
@@ -15280,8 +18058,9 @@
       <c r="F88" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:6">
+      <c r="G88" s="27"/>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" t="s">
         <v>234</v>
       </c>
@@ -15300,8 +18079,9 @@
       <c r="F89" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:6">
+      <c r="G89" s="27"/>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
         <v>468</v>
       </c>
@@ -15320,8 +18100,9 @@
       <c r="F90" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:6">
+      <c r="G90" s="27"/>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
         <v>472</v>
       </c>
@@ -15340,8 +18121,9 @@
       <c r="F91" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:6">
+      <c r="G91" s="27"/>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
         <v>476</v>
       </c>
@@ -15360,8 +18142,9 @@
       <c r="F92" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:6">
+      <c r="G92" s="27"/>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
         <v>480</v>
       </c>
@@ -15380,8 +18163,9 @@
       <c r="F93" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:6">
+      <c r="G93" s="27"/>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" t="s">
         <v>484</v>
       </c>
@@ -15400,8 +18184,9 @@
       <c r="F94" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:6">
+      <c r="G94" s="27"/>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" t="s">
         <v>241</v>
       </c>
@@ -15420,8 +18205,9 @@
       <c r="F95" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:6">
+      <c r="G95" s="27"/>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" t="s">
         <v>334</v>
       </c>
@@ -15440,8 +18226,9 @@
       <c r="F96" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96" s="27"/>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" t="s">
         <v>227</v>
       </c>
@@ -15457,8 +18244,9 @@
       <c r="F97" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97" s="27"/>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" t="s">
         <v>496</v>
       </c>
@@ -15477,8 +18265,9 @@
       <c r="F98" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:6">
+      <c r="G98" s="27"/>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" t="s">
         <v>500</v>
       </c>
@@ -15497,8 +18286,9 @@
       <c r="F99" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99" s="27"/>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" t="s">
         <v>504</v>
       </c>
@@ -15517,8 +18307,9 @@
       <c r="F100" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100" s="27"/>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" t="s">
         <v>508</v>
       </c>
@@ -15537,8 +18328,9 @@
       <c r="F101" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:6">
+      <c r="G101" s="27"/>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" t="s">
         <v>508</v>
       </c>
@@ -15557,8 +18349,9 @@
       <c r="F102" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="G102" s="27"/>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" t="s">
         <v>515</v>
       </c>
@@ -15577,8 +18370,9 @@
       <c r="F103" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103" s="27"/>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" t="s">
         <v>519</v>
       </c>
@@ -15594,8 +18388,9 @@
       <c r="F104" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:6">
+      <c r="G104" s="27"/>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" t="s">
         <v>522</v>
       </c>
@@ -15614,6 +18409,7 @@
       <c r="F105" t="b">
         <v>0</v>
       </c>
+      <c r="G105" s="27"/>
     </row>
   </sheetData>
   <hyperlinks>
